--- a/Country_Data_SQL.xlsx
+++ b/Country_Data_SQL.xlsx
@@ -464,7 +464,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("AFG", "Afghanistan", "South Asia", "Kabul", "Low income", -1.87955236434937, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("AFG", "Afghanistan", "South Asia", "Kabul", "Low income", -1.87955236434937, 61.480554405654445, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -474,7 +474,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("AGO", "Angola", "Sub-Saharan Africa", "Luanda", "Lower middle income", -1.04042935371399, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("AGO", "Angola", "Sub-Saharan Africa", "Luanda", "Lower middle income", -1.04042935371399, 27.67608406192348, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -484,7 +484,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("ALB", "Albania", "Europe &amp; Central Asia", "Tirane", "Upper middle income", 0.0650628432631493, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("ALB", "Albania", "Europe &amp; Central Asia", "Tirane", "Upper middle income", 0.0650628432631493, 102.61554744525547, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -494,7 +494,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("ARE", "United Arab Emirates", "Middle East &amp; North Africa", "Abu Dhabi", "High income: nonOECD", 1.29996228218079, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("ARE", "United Arab Emirates", "Middle East &amp; North Africa", "Abu Dhabi", "High income: nonOECD", 1.29996228218079, 131.86630526612223, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -504,7 +504,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("ARG", "Argentina", "Latin America &amp; Caribbean", "Buenos Aires", "Upper middle income", -0.282877296209335, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("ARG", "Argentina", "Latin America &amp; Caribbean", "Buenos Aires", "Upper middle income", -0.282877296209335, 16.738741691605554, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("ARM", "Armenia", "Europe &amp; Central Asia", "Yerevan", "Lower middle income", -0.314229518175125, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("ARM", "Armenia", "Europe &amp; Central Asia", "Yerevan", "Lower middle income", -0.314229518175125, 98.03210396909027, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -534,7 +534,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("ATG", "Antigua and Barbuda", "Latin America &amp; Caribbean", "Saint John's", "Upper middle income", -0.159468576312065, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("ATG", "Antigua and Barbuda", "Latin America &amp; Caribbean", "Saint John's", "Upper middle income", -0.159468576312065, 211.86136363636365, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -544,7 +544,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("AUS", "Australia", "East Asia &amp; Pacific", "Canberra", "High income: OECD", 1.52887463569641, NULL, "Developed", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("AUS", "Australia", "East Asia &amp; Pacific", "Canberra", "High income: OECD", 1.52887463569641, 3.339228447143923, "Developed", "NULL");</t>
         </is>
       </c>
     </row>
@@ -554,7 +554,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("AUT", "Austria", "Europe &amp; Central Asia", "Vienna", "High income: OECD", 1.46545016765594, NULL, "Developed", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("AUT", "Austria", "Europe &amp; Central Asia", "Vienna", "High income: OECD", 1.46545016765594, 108.52880513814833, "Developed", "NULL");</t>
         </is>
       </c>
     </row>
@@ -564,7 +564,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("AZE", "Azerbaijan", "Europe &amp; Central Asia", "Baku", "Upper middle income", -0.0406579151749611, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("AZE", "Azerbaijan", "Europe &amp; Central Asia", "Baku", "Upper middle income", -0.0406579151749611, 122.65880217785843, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -574,7 +574,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("BDI", "Burundi", "Sub-Saharan Africa", "Bujumbura", "Low income", -1.26284074783325, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("BDI", "Burundi", "Sub-Saharan Africa", "Bujumbura", "Low income", -1.26284074783325, 488.75440031152647, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -584,7 +584,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("BEL", "Belgium", "Europe &amp; Central Asia", "Brussels", "High income: OECD", 1.22765874862671, NULL, "Developed", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("BEL", "Belgium", "Europe &amp; Central Asia", "Brussels", "High income: OECD", 1.22765874862671, 382.63523778071334, "Developed", "NULL");</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("BEN", "Benin", "Sub-Saharan Africa", "Porto-Novo", "Low income", -0.164296001195908, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("BEN", "Benin", "Sub-Saharan Africa", "Porto-Novo", "Low income", -0.164296001195908, 115.26157325292657, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -604,7 +604,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("BFA", "Burkina Faso", "Sub-Saharan Africa", "Ouagadougou", "Low income", -0.825155377388, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("BFA", "Burkina Faso", "Sub-Saharan Africa", "Ouagadougou", "Low income", -0.825155377388, 80.77735014619883, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -614,7 +614,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("BGD", "Bangladesh", "South Asia", "Dhaka", "Low income", -0.76255190372467, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("BGD", "Bangladesh", "South Asia", "Dhaka", "Low income", -0.76255190372467, 1301.0390335714835, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -624,7 +624,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("BGR", "Bulgaria", "Europe &amp; Central Asia", "Sofia", "Upper middle income", -0.270799845457077, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("BGR", "Bulgaria", "Europe &amp; Central Asia", "Sofia", "Upper middle income", -0.270799845457077, 63.35430176860722, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -634,7 +634,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("BHR", "Bahrain", "Middle East &amp; North Africa", "Manama", "High income: nonOECD", 0.640424907207489, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("BHR", "Bahrain", "Middle East &amp; North Africa", "Manama", "High income: nonOECD", 0.640424907207489, 1852.23417721519, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -644,7 +644,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("BHS", "Bahamas, The", "Latin America &amp; Caribbean", "Nassau", "High income: nonOECD", 0.424218326807022, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("BHS", "Bahamas, The", "Latin America &amp; Caribbean", "Nassau", "High income: nonOECD", 0.424218326807022, 40.74985014985015, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -654,7 +654,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("BIH", "Bosnia and Herzegovina", "Europe &amp; Central Asia", "Sarajevo", "Upper middle income", -1.06442642211914, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("BIH", "Bosnia and Herzegovina", "Europe &amp; Central Asia", "Sarajevo", "Upper middle income", -1.06442642211914, 63.88560546875, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -664,7 +664,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("BLR", "Belarus", "Europe &amp; Central Asia", "Minsk", "Upper middle income", -0.851105093955994, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("BLR", "Belarus", "Europe &amp; Central Asia", "Minsk", "Upper middle income", -0.851105093955994, 45.83683173195368, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -674,7 +674,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("BLZ", "Belize", "Latin America &amp; Caribbean", "Belmopan", "Lower middle income", -0.356178641319275, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("BLZ", "Belize", "Latin America &amp; Caribbean", "Belmopan", "Lower middle income", -0.356178641319275, 17.53752740026304, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -694,7 +694,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("BOL", "Bolivia", "Latin America &amp; Caribbean", "La Paz", "Lower middle income", -0.563976764678955, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("BOL", "Bolivia", "Latin America &amp; Caribbean", "La Paz", "Lower middle income", -0.563976764678955, 11.150624942305917, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -704,7 +704,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("BRA", "Brazil", "Latin America &amp; Caribbean", "Brasilia", "Upper middle income", -0.587532162666321, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("BRA", "Brazil", "Latin America &amp; Caribbean", "Brasilia", "Upper middle income", -0.587532162666321, 25.64281323356632, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -714,7 +714,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("BRB", "Barbados", "Latin America &amp; Caribbean", "Bridgetown", "High income: nonOECD", 0.428703635931015, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("BRB", "Barbados", "Latin America &amp; Caribbean", "Bridgetown", "High income: nonOECD", 0.428703635931015, 653.953488372093, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -724,7 +724,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("BRN", "Brunei Darussalam", "East Asia &amp; Pacific", "Bandar Seri Begawan", "High income: nonOECD", 1.4222446680069, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("BRN", "Brunei Darussalam", "East Asia &amp; Pacific", "Bandar Seri Begawan", "High income: nonOECD", 1.4222446680069, 84.51100569259962, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -734,7 +734,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("BTN", "Bhutan", "South Asia", "Thimphu", "Lower middle income", 0.556007385253906, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("BTN", "Bhutan", "South Asia", "Thimphu", "Lower middle income", 0.556007385253906, 20.385055060304143, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -744,7 +744,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("BWA", "Botswana", "Sub-Saharan Africa", "Gaborone", "Upper middle income", 0.463997155427933, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("BWA", "Botswana", "Sub-Saharan Africa", "Gaborone", "Upper middle income", 0.463997155427933, 4.567294831754098, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -754,7 +754,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("CAF", "Central African Republic", "Sub-Saharan Africa", "Bangui", "Low income", -1.7093962430954, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("CAF", "Central African Republic", "Sub-Saharan Africa", "Bangui", "Low income", -1.7093962430954, 8.759757937654499, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("CAN", "Canada", "North America", "Ottawa", "High income: OECD", 1.56707048416138, NULL, "Developed", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("CAN", "Canada", "North America", "Ottawa", "High income: OECD", 1.56707048416138, 4.3495053875999865, "Developed", "NULL");</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("CHE", "Switzerland", "Europe &amp; Central Asia", "Bern", "High income: OECD", 2.04994893074036, NULL, "Developed", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("CHE", "Switzerland", "Europe &amp; Central Asia", "Bern", "High income: OECD", 2.04994893074036, 220.31454103721043, "Developed", "NULL");</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("CHL", "Chile", "Latin America &amp; Caribbean", "Santiago", "Upper middle income", 0.546773970127106, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("CHL", "Chile", "Latin America &amp; Caribbean", "Santiago", "Upper middle income", 0.546773970127106, 26.217007472442344, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -804,7 +804,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("CHN", "China", "East Asia &amp; Pacific", "Beijing", "Upper middle income", 0.495032012462616, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("CHN", "China", "East Asia &amp; Pacific", "Beijing", "Upper middle income", 0.495032012462616, 150.4397536910657, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -814,7 +814,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("CIV", "Cote d'Ivoire", "Sub-Saharan Africa", "Yamoussoukro", "Lower middle income", -0.342977225780487, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("CIV", "Cote d'Ivoire", "Sub-Saharan Africa", "Yamoussoukro", "Lower middle income", -0.342977225780487, 86.40958805031447, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -824,7 +824,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("CMR", "Cameroon", "Sub-Saharan Africa", "Yaounde", "Lower middle income", -0.881544709205627, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("CMR", "Cameroon", "Sub-Saharan Africa", "Yaounde", "Lower middle income", -0.881544709205627, 57.53766156840346, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -834,7 +834,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("COG", "Congo, Rep.", "Sub-Saharan Africa", "Brazzaville", "Lower middle income", -1.36932182312012, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("COG", "Congo, Rep.", "Sub-Saharan Africa", "Brazzaville", "Lower middle income", -1.36932182312012, 17.088743777452414, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -854,7 +854,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("COL", "Colombia", "Latin America &amp; Caribbean", "Bogota", "Upper middle income", 0.0144156282767653, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("COL", "Colombia", "Latin America &amp; Caribbean", "Bogota", "Upper middle income", 0.0144156282767653, 46.43223253717891, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -864,7 +864,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("COM", "Comoros", "Sub-Saharan Africa", "Moroni", "Low income", -1.68251287937164, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("COM", "Comoros", "Sub-Saharan Africa", "Moroni", "Low income", -1.68251287937164, 441.49650725416444, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -874,7 +874,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("CPV", "Cape Verde", "Sub-Saharan Africa", "Praia", "Lower middle income", -0.0262028370052576, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("CPV", "Cape Verde", "Sub-Saharan Africa", "Praia", "Lower middle income", -0.0262028370052576, 145.88709677419354, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -884,7 +884,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("CRI", "Costa Rica", "Latin America &amp; Caribbean", "San Jose", "Upper middle income", 0.0532664284110069, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("CRI", "Costa Rica", "Latin America &amp; Caribbean", "San Jose", "Upper middle income", 0.0532664284110069, 100.93922835879357, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -894,7 +894,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("CUB", "Cuba", "Latin America &amp; Caribbean", "Havana", "Upper middle income", -0.350331842899323, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("CUB", "Cuba", "Latin America &amp; Caribbean", "Havana", "Upper middle income", -0.350331842899323, 108.4428901734104, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -924,7 +924,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("CYP", "Cyprus", "Europe &amp; Central Asia", "Nicosia", "High income: nonOECD", 0.730678856372833, NULL, "Developed", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("CYP", "Cyprus", "Europe &amp; Central Asia", "Nicosia", "High income: nonOECD", 0.730678856372833, 134.65238095238095, "Developed", "NULL");</t>
         </is>
       </c>
     </row>
@@ -934,7 +934,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("CZE", "Czech Republic", "Europe &amp; Central Asia", "Prague", "High income: OECD", 1.0939074754715, NULL, "Developed", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("CZE", "Czech Republic", "Europe &amp; Central Asia", "Prague", "High income: OECD", 1.0939074754715, 136.10834905384766, "Developed", "NULL");</t>
         </is>
       </c>
     </row>
@@ -944,7 +944,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("DEU", "Germany", "Europe &amp; Central Asia", "Berlin", "High income: OECD", 1.2898074388504, NULL, "Developed", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("DEU", "Germany", "Europe &amp; Central Asia", "Berlin", "High income: OECD", 1.2898074388504, 238.11808580669165, "Developed", "NULL");</t>
         </is>
       </c>
     </row>
@@ -954,7 +954,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("DJI", "Djibouti", "Middle East &amp; North Africa", "Djibouti", "Lower middle income", -0.786164522171021, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("DJI", "Djibouti", "Middle East &amp; North Africa", "Djibouti", "Lower middle income", -0.786164522171021, 47.69443485763589, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("DMA", "Dominica", "Latin America &amp; Caribbean", "Roseau", "Upper middle income", -0.0970938131213188, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("DMA", "Dominica", "Latin America &amp; Caribbean", "Roseau", "Upper middle income", -0.0970938131213188, 96.54933333333334, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -974,7 +974,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("DNK", "Denmark", "Europe &amp; Central Asia", "Copenhagen", "High income: OECD", 1.9906097650528, NULL, "Developed", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("DNK", "Denmark", "Europe &amp; Central Asia", "Copenhagen", "High income: OECD", 1.9906097650528, 146.418325, "Developed", "NULL");</t>
         </is>
       </c>
     </row>
@@ -984,7 +984,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("DOM", "Dominican Republic", "Latin America &amp; Caribbean", "Santo Domingo", "Upper middle income", -0.0677330642938614, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("DOM", "Dominican Republic", "Latin America &amp; Caribbean", "Santo Domingo", "Upper middle income", -0.0677330642938614, 233.90782857503524, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -994,7 +994,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("DZA", "Algeria", "Middle East &amp; North Africa", "Algiers", "Upper middle income", -0.513090252876282, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("DZA", "Algeria", "Middle East &amp; North Africa", "Algiers", "Upper middle income", -0.513090252876282, 18.548603311611128, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -1004,7 +1004,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("ECU", "Ecuador", "Latin America &amp; Caribbean", "Quito", "Upper middle income", -0.308546245098114, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("ECU", "Ecuador", "Latin America &amp; Caribbean", "Quito", "Upper middle income", -0.308546245098114, 71.6610444516025, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -1014,7 +1014,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("EGY", "Egypt, Arab Rep.", "Middle East &amp; North Africa", "Cairo", "Lower middle income", -0.447546809911728, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("EGY", "Egypt, Arab Rep.", "Middle East &amp; North Africa", "Cairo", "Lower middle income", -0.447546809911728, 109.76159324928425, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("ERI", "Eritrea", "Sub-Saharan Africa", "Asmara", "Low income", -1.73040449619293, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("ERI", "Eritrea", "Sub-Saharan Africa", "Asmara", "Low income", -1.73040449619293, 29.909841413924884, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -1034,7 +1034,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("ESP", "Spain", "Europe &amp; Central Asia", "Madrid", "High income: OECD", 0.92075788974762, NULL, "Developed", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("ESP", "Spain", "Europe &amp; Central Asia", "Madrid", "High income: OECD", 0.92075788974762, 94.8822087969797, "Developed", "NULL");</t>
         </is>
       </c>
     </row>
@@ -1044,7 +1044,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("EST", "Estonia", "Europe &amp; Central Asia", "Tallinn", "High income: OECD", 1.34313404560089, NULL, "Developed", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("EST", "Estonia", "Europe &amp; Central Asia", "Tallinn", "High income: OECD", 1.34313404560089, 31.132912280701753, "Developed", "NULL");</t>
         </is>
       </c>
     </row>
@@ -1054,7 +1054,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("ETH", "Ethiopia", "Sub-Saharan Africa", "Addis ababa", "Low income", -0.745265185832977, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("ETH", "Ethiopia", "Sub-Saharan Africa", "Addis ababa", "Low income", -0.745265185832977, 106.57991190303787, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -1064,7 +1064,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("FIN", "Finland", "Europe &amp; Central Asia", "Helsinki", "High income: OECD", 1.75512683391571, NULL, "Developed", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("FIN", "Finland", "Europe &amp; Central Asia", "Helsinki", "High income: OECD", 1.75512683391571, 18.230165913412076, "Developed", "NULL");</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("FJI", "Fiji", "East Asia &amp; Pacific", "Suva", "Lower middle income", 0.591782867908478, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("FJI", "Fiji", "East Asia &amp; Pacific", "Suva", "Lower middle income", 0.591782867908478, 50.608100711548985, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -1084,7 +1084,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("FRA", "France", "Europe &amp; Central Asia", "Paris", "High income: OECD", 1.165806889534, NULL, "Developed", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("FRA", "France", "Europe &amp; Central Asia", "Paris", "High income: OECD", 1.165806889534, 123.75753391884315, "Developed", "NULL");</t>
         </is>
       </c>
     </row>
@@ -1104,7 +1104,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("FSM", "Micronesia, Fed. Sts.", "East Asia &amp; Pacific", "Palikir", "Lower middle income", 0.379839152097702, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("FSM", "Micronesia, Fed. Sts.", "East Asia &amp; Pacific", "Palikir", "Lower middle income", 0.379839152097702, 161.6157142857143, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -1114,7 +1114,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("GAB", "Gabon", "Sub-Saharan Africa", "Libreville", "Upper middle income", -0.726116597652435, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("GAB", "Gabon", "Sub-Saharan Africa", "Libreville", "Upper middle income", -0.726116597652435, 9.085958784491792, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -1124,7 +1124,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("GBR", "United Kingdom", "Europe &amp; Central Asia", "London", "High income: OECD", 1.23863482475281, NULL, "Developed", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("GBR", "United Kingdom", "Europe &amp; Central Asia", "London", "High income: OECD", 1.23863482475281, 277.0482866944984, "Developed", "NULL");</t>
         </is>
       </c>
     </row>
@@ -1134,7 +1134,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("GEO", "Georgia", "Europe &amp; Central Asia", "Tbilisi", "Lower middle income", 0.650825500488281, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("GEO", "Georgia", "Europe &amp; Central Asia", "Tbilisi", "Lower middle income", 0.650825500488281, 64.8834808775675, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("GHA", "Ghana", "Sub-Saharan Africa", "Accra", "Lower middle income", -0.0625455379486084, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("GHA", "Ghana", "Sub-Saharan Africa", "Accra", "Lower middle income", -0.0625455379486084, 144.3000839438675, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("GIN", "Guinea", "Sub-Saharan Africa", "Conakry", "Low income", -0.941579163074493, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("GIN", "Guinea", "Sub-Saharan Africa", "Conakry", "Low income", -0.941579163074493, 55.0704297574475, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -1174,7 +1174,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("GMB", "Gambia, The", "Sub-Saharan Africa", "Banjul", "Low income", -0.674558699131012, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("GMB", "Gambia, The", "Sub-Saharan Africa", "Banjul", "Low income", -0.674558699131012, 260.8612648221344, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -1184,7 +1184,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("GNB", "Guinea-Bissau", "Sub-Saharan Africa", "Bissau", "Low income", -1.48615753650665, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("GNB", "Guinea-Bissau", "Sub-Saharan Africa", "Bissau", "Low income", -1.48615753650665, 73.28310810810811, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -1194,7 +1194,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("GNQ", "Equatorial Guinea", "Sub-Saharan Africa", "Malabo", "High income: nonOECD", -1.29638779163361, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("GNQ", "Equatorial Guinea", "Sub-Saharan Africa", "Malabo", "High income: nonOECD", -1.29638779163361, 58.26973262032086, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -1204,7 +1204,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("GRC", "Greece", "Europe &amp; Central Asia", "Athens", "High income: OECD", 0.447398781776428, NULL, "Developed", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("GRC", "Greece", "Europe &amp; Central Asia", "Athens", "High income: OECD", 0.447398781776428, 81.99539953452289, "Developed", "NULL");</t>
         </is>
       </c>
     </row>
@@ -1214,7 +1214,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("GRD", "Grenada", "Latin America &amp; Caribbean", "Saint George's", "Upper middle income", 0.0384795591235161, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("GRD", "Grenada", "Latin America &amp; Caribbean", "Saint George's", "Upper middle income", 0.0384795591235161, 366.5, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -1234,7 +1234,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("GTM", "Guatemala", "Latin America &amp; Caribbean", "Guatemala City", "Lower middle income", -0.906891822814941, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("GTM", "Guatemala", "Latin America &amp; Caribbean", "Guatemala City", "Lower middle income", -0.906891822814941, 159.66541620007465, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -1254,7 +1254,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("GUY", "Guyana", "Latin America &amp; Caribbean", "Georgetown", "Lower middle income", -0.265898406505585, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("GUY", "Guyana", "Latin America &amp; Caribbean", "Georgetown", "Lower middle income", -0.265898406505585, 4.087208534417069, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -1274,7 +1274,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("HND", "Honduras", "Latin America &amp; Caribbean", "Tegucigalpa", "Lower middle income", -0.866467356681824, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("HND", "Honduras", "Latin America &amp; Caribbean", "Tegucigalpa", "Lower middle income", -0.866467356681824, 91.86115828045402, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("HRV", "Croatia", "Europe &amp; Central Asia", "Zagreb", "High income: nonOECD", 0.581651031970978, NULL, "Developed", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("HRV", "Croatia", "Europe &amp; Central Asia", "Zagreb", "High income: nonOECD", 0.581651031970978, 69.31736954967835, "Developed", "NULL");</t>
         </is>
       </c>
     </row>
@@ -1294,7 +1294,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("HTI", "Haiti", "Latin America &amp; Caribbean", "Port-au-Prince", "Low income", -2.22696566581726, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("HTI", "Haiti", "Latin America &amp; Caribbean", "Port-au-Prince", "Low income", -2.22696566581726, 415.36897677793905, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -1304,7 +1304,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("HUN", "Hungary", "Europe &amp; Central Asia", "Budapest", "High income: OECD", 0.534344553947449, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("HUN", "Hungary", "Europe &amp; Central Asia", "Budapest", "High income: OECD", 0.534344553947449, 106.39810431733508, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -1314,7 +1314,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("IDN", "Indonesia", "East Asia &amp; Pacific", "Jakarta", "Lower middle income", 0.436999291181564, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("IDN", "Indonesia", "East Asia &amp; Pacific", "Jakarta", "Lower middle income", 0.436999291181564, 144.64738040148436, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -1334,7 +1334,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("IND", "India", "South Asia", "New Delhi", "Lower middle income", 0.370331406593323, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("IND", "India", "South Asia", "New Delhi", "Lower middle income", 0.370331406593323, 473.41873274160076, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -1344,7 +1344,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("IRL", "Ireland", "Europe &amp; Central Asia", "Dublin", "High income: OECD", 1.54913818836212, NULL, "Developed", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("IRL", "Ireland", "Europe &amp; Central Asia", "Dublin", "High income: OECD", 1.54913818836212, 73.06087966323123, "Developed", "NULL");</t>
         </is>
       </c>
     </row>
@@ -1354,7 +1354,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("IRN", "Iran, Islamic Rep.", "Middle East &amp; North Africa", "Tehran", "Upper middle income", -0.882116675376892, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("IRN", "Iran, Islamic Rep.", "Middle East &amp; North Africa", "Tehran", "Upper middle income", -0.882116675376892, 54.190096764252694, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("IRQ", "Iraq", "Middle East &amp; North Africa", "Baghdad", "Lower middle income", -1.30191540718079, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("IRQ", "Iraq", "Middle East &amp; North Africa", "Baghdad", "Lower middle income", -1.30191540718079, 100.27824051892529, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -1374,7 +1374,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("ISL", "Iceland", "Europe &amp; Central Asia", "Reykjavik", "High income: OECD", 1.56327533721924, NULL, "Developed", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("ISL", "Iceland", "Europe &amp; Central Asia", "Reykjavik", "High income: OECD", 1.56327533721924, 3.694535356540712, "Developed", "NULL");</t>
         </is>
       </c>
     </row>
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("ISR", "Israel", "Middle East &amp; North Africa", "NULL", "High income: OECD", 1.23656439781189, NULL, "Developed", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("ISR", "Israel", "Middle East &amp; North Africa", "NULL", "High income: OECD", 1.23656439781189, 433.0591497227357, "Developed", "NULL");</t>
         </is>
       </c>
     </row>
@@ -1394,7 +1394,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("ITA", "Italy", "Europe &amp; Central Asia", "Rome", "High income: OECD", 0.449057072401047, NULL, "Developed", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("ITA", "Italy", "Europe &amp; Central Asia", "Rome", "High income: OECD", 0.449057072401047, 199.9654162594643, "Developed", "NULL");</t>
         </is>
       </c>
     </row>
@@ -1404,7 +1404,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("JAM", "Jamaica", "Latin America &amp; Caribbean", "Kingston", "Upper middle income", 0.604482173919678, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("JAM", "Jamaica", "Latin America &amp; Caribbean", "Kingston", "Upper middle income", 0.604482173919678, 261.0983379501385, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -1414,7 +1414,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("JOR", "Jordan", "Middle East &amp; North Africa", "Amman", "Upper middle income", 0.194713801145554, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("JOR", "Jordan", "Middle East &amp; North Africa", "Amman", "Upper middle income", 0.194713801145554, 125.55215442484852, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -1424,7 +1424,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("JPN", "Japan", "East Asia &amp; Pacific", "Tokyo", "High income: OECD", 1.61974680423737, NULL, "Developed", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("JPN", "Japan", "East Asia &amp; Pacific", "Tokyo", "High income: OECD", 1.61974680423737, 344.8054677640604, "Developed", "NULL");</t>
         </is>
       </c>
     </row>
@@ -1434,7 +1434,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("KAZ", "Kazakhstan", "Europe &amp; Central Asia", "Astana", "Upper middle income", 0.143430486321449, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("KAZ", "Kazakhstan", "Europe &amp; Central Asia", "Astana", "Upper middle income", 0.143430486321449, 7.038184983516687, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -1444,7 +1444,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("KEN", "Kenya", "Sub-Saharan Africa", "Nairobi", "Low income", -0.300569444894791, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("KEN", "Kenya", "Sub-Saharan Africa", "Nairobi", "Low income", -0.300569444894791, 93.13282144990687, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -1454,7 +1454,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("KGZ", "Kyrgyz Republic", "Europe &amp; Central Asia", "Bishkek", "Low income", -0.889000654220581, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("KGZ", "Kyrgyz Republic", "Europe &amp; Central Asia", "Bishkek", "Low income", -0.889000654220581, 35.31491136600626, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -1464,7 +1464,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("KHM", "Cambodia", "East Asia &amp; Pacific", "Phnom Penh", "Low income", -0.351662397384644, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("KHM", "Cambodia", "East Asia &amp; Pacific", "Phnom Penh", "Low income", -0.351662397384644, 93.97814978472694, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -1474,7 +1474,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("KIR", "Kiribati", "East Asia &amp; Pacific", "Tarawa", "Lower middle income", 0.167575597763062, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("KIR", "Kiribati", "East Asia &amp; Pacific", "Tarawa", "Lower middle income", 0.167575597763062, 159.1037037037037, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -1484,7 +1484,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("KNA", "St. Kitts and Nevis", "Latin America &amp; Caribbean", "Basseterre", "Upper middle income", 0.392122596502304, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("KNA", "St. Kitts and Nevis", "Latin America &amp; Caribbean", "Basseterre", "Upper middle income", 0.392122596502304, 183.1, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -1494,7 +1494,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("KOR", "Korea, Rep.", "East Asia &amp; Pacific", "Seoul", "High income: OECD", 1.34957349300385, NULL, "Developed", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("KOR", "Korea, Rep.", "East Asia &amp; Pacific", "Seoul", "High income: OECD", 1.34957349300385, 530.1729098360656, "Developed", "NULL");</t>
         </is>
       </c>
     </row>
@@ -1514,7 +1514,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("KWT", "Kuwait", "Middle East &amp; North Africa", "Kuwait City", "High income: nonOECD", 0.112373597919941, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("KWT", "Kuwait", "Middle East &amp; North Africa", "Kuwait City", "High income: nonOECD", 0.112373597919941, 238.50246913580247, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -1524,7 +1524,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("LAO", "Lao PDR", "East Asia &amp; Pacific", "Vientiane", "Lower middle income", -0.595122039318085, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("LAO", "Lao PDR", "East Asia &amp; Pacific", "Vientiane", "Lower middle income", -0.595122039318085, 32.1709575389948, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -1534,7 +1534,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("LBN", "Lebanon", "Middle East &amp; North Africa", "Beirut", "Upper middle income", -1.45865571498871, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("LBN", "Lebanon", "Middle East &amp; North Africa", "Beirut", "Upper middle income", -1.45865571498871, 546.689247311828, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -1544,7 +1544,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("LBR", "Liberia", "Sub-Saharan Africa", "Monrovia", "Low income", -1.43825364112854, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("LBR", "Liberia", "Sub-Saharan Africa", "Monrovia", "Low income", -1.43825364112854, 53.91835548172757, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -1554,7 +1554,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("LBY", "Libya", "Middle East &amp; North Africa", "Tripoli", "Upper middle income", -1.75491416454315, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("LBY", "Libya", "Middle East &amp; North Africa", "Tripoli", "Upper middle income", -1.75491416454315, 3.8278623958534617, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -1564,7 +1564,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("LCA", "St. Lucia", "Latin America &amp; Caribbean", "Castries", "Upper middle income", -0.0970938131213188, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("LCA", "St. Lucia", "Latin America &amp; Caribbean", "Castries", "Upper middle income", -0.0970938131213188, 294.5098360655738, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -1574,7 +1574,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("LIE", "Liechtenstein", "Europe &amp; Central Asia", "Vaduz", "High income: nonOECD", 1.48783588409424, NULL, "Developed", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("LIE", "Liechtenstein", "Europe &amp; Central Asia", "Vaduz", "High income: nonOECD", 1.48783588409424, 243.99375, "Developed", "NULL");</t>
         </is>
       </c>
     </row>
@@ -1584,7 +1584,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("LKA", "Sri Lanka", "South Asia", "Colombo", "Lower middle income", -0.391204476356506, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("LKA", "Sri Lanka", "South Asia", "Colombo", "Lower middle income", -0.391204476356506, 358.16359521500164, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -1594,7 +1594,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("LSO", "Lesotho", "Sub-Saharan Africa", "Maseru", "Lower middle income", -0.890573918819427, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("LSO", "Lesotho", "Sub-Saharan Africa", "Maseru", "Lower middle income", -0.890573918819427, 75.14670619235837, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -1604,7 +1604,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("LTU", "Lithuania", "Europe &amp; Central Asia", "Vilnius", "Upper middle income", 0.994318783283234, NULL, "Developed", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("LTU", "Lithuania", "Europe &amp; Central Asia", "Vilnius", "Upper middle income", 0.994318783283234, 44.734690943938666, "Developed", "NULL");</t>
         </is>
       </c>
     </row>
@@ -1614,7 +1614,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("LUX", "Luxembourg", "Europe &amp; Central Asia", "Luxembourg", "High income: OECD", 1.77271509170532, NULL, "Developed", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("LUX", "Luxembourg", "Europe &amp; Central Asia", "Luxembourg", "High income: OECD", 1.77271509170532, 248.62068161866955, "Developed", "NULL");</t>
         </is>
       </c>
     </row>
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("LVA", "Latvia", "Europe &amp; Central Asia", "Riga", "Upper middle income", 0.691895127296448, NULL, "Developed", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("LVA", "Latvia", "Europe &amp; Central Asia", "Riga", "Upper middle income", 0.691895127296448, 30.282661095934436, "Developed", "NULL");</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1654,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("MAR", "Morocco", "Middle East &amp; North Africa", "Rabat", "Lower middle income", -0.131649643182755, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("MAR", "Morocco", "Middle East &amp; North Africa", "Rabat", "Lower middle income", -0.131649643182755, 83.0754738964822, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -1664,7 +1664,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("MCO", "Monaco", "Europe &amp; Central Asia", "Monaco", "High income: nonOECD", 2.04689598083496, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("MCO", "Monaco", "Europe &amp; Central Asia", "Monaco", "High income: nonOECD", 2.04689598083496, 17603.646833013434, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -1674,7 +1674,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("MDA", "Moldova", "Europe &amp; Central Asia", "Chisinau", "Lower middle income", -0.307013601064682, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("MDA", "Moldova", "Europe &amp; Central Asia", "Chisinau", "Lower middle income", -0.307013601064682, 90.110355122019, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -1684,7 +1684,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("MDG", "Madagascar", "Sub-Saharan Africa", "AntaNULLarivo", "Low income", -0.987728238105774, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("MDG", "Madagascar", "Sub-Saharan Africa", "AntaNULLarivo", "Low income", -0.987728238105774, 49.700331729116535, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("MDV", "Maldives", "South Asia", "Male", "Upper middle income", -0.134175449609756, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("MDV", "Maldives", "South Asia", "Male", "Upper middle income", -0.134175449609756, 1738.19, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -1704,7 +1704,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("MEX", "Mexico", "Latin America &amp; Caribbean", "Mexico City", "Upper middle income", -0.280898958444595, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("MEX", "Mexico", "Latin America &amp; Caribbean", "Mexico City", "Upper middle income", -0.280898958444595, 65.17921654363538, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -1714,7 +1714,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("MHL", "Marshall Islands", "East Asia &amp; Pacific", "Majuro", "Lower middle income", 0.230687335133553, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("MHL", "Marshall Islands", "East Asia &amp; Pacific", "Majuro", "Lower middle income", 0.230687335133553, 233.61111111111111, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -1724,7 +1724,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("MKD", "Macedonia, FYR", "Europe &amp; Central Asia", "Skopje", "Upper middle income", -0.0810714960098267, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("MKD", "Macedonia, FYR", "Europe &amp; Central Asia", "Skopje", "Upper middle income", -0.0810714960098267, 81.88310864393338, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -1734,7 +1734,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("MLI", "Mali", "Sub-Saharan Africa", "Bamako", "Low income", -1.19682347774506, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("MLI", "Mali", "Sub-Saharan Africa", "Bamako", "Low income", -1.19682347774506, 17.952108278218965, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -1744,7 +1744,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("MLT", "Malta", "Middle East &amp; North Africa", "Valletta", "High income: nonOECD", 0.80439019203186, NULL, "Developed", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("MLT", "Malta", "Middle East &amp; North Africa", "Valletta", "High income: nonOECD", 0.80439019203186, 1620.425, "Developed", "NULL");</t>
         </is>
       </c>
     </row>
@@ -1754,7 +1754,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("MMR", "Myanmar", "East Asia &amp; Pacific", "Naypyidaw", "Low income", -1.68404102325439, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("MMR", "Myanmar", "East Asia &amp; Pacific", "Naypyidaw", "Low income", -1.68404102325439, 82.42769546631528, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -1764,7 +1764,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("MNE", "Montenegro", "Europe &amp; Central Asia", "Podgorica", "Upper middle income", -0.0270149894058704, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("MNE", "Montenegro", "Europe &amp; Central Asia", "Podgorica", "Upper middle income", -0.0270149894058704, 46.03799256505576, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -1774,7 +1774,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("MNG", "Mongolia", "East Asia &amp; Pacific", "Ulaanbaatar", "Lower middle income", -0.424908697605133, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("MNG", "Mongolia", "East Asia &amp; Pacific", "Ulaanbaatar", "Lower middle income", -0.424908697605133, 2.149449087548242, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -1794,7 +1794,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("MOZ", "Mozambique", "Sub-Saharan Africa", "Maputo", "Low income", -0.714270293712616, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("MOZ", "Mozambique", "Sub-Saharan Africa", "Maputo", "Low income", -0.714270293712616, 40.790803428367965, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -1804,7 +1804,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("MRT", "Mauritania", "Sub-Saharan Africa", "Nouakchott", "Lower middle income", -0.701024174690247, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("MRT", "Mauritania", "Sub-Saharan Africa", "Nouakchott", "Lower middle income", -0.701024174690247, 4.477514310662657, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -1814,7 +1814,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("MUS", "Mauritius", "Sub-Saharan Africa", "Port Louis", "Upper middle income", 0.750284731388092, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("MUS", "Mauritius", "Sub-Saharan Africa", "Port Louis", "Upper middle income", 0.750284731388092, 634.1181772658988, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -1824,7 +1824,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("MWI", "Malawi", "Sub-Saharan Africa", "Lilongwe", "Low income", -0.840930998325348, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("MWI", "Malawi", "Sub-Saharan Africa", "Lilongwe", "Low income", -0.840930998325348, 210.96459482392873, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -1834,7 +1834,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("MYS", "Malaysia", "East Asia &amp; Pacific", "Kuala Lumpur", "Upper middle income", 0.993270576000214, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("MYS", "Malaysia", "East Asia &amp; Pacific", "Kuala Lumpur", "Upper middle income", 0.993270576000214, 102.18802008826663, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -1854,7 +1854,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("NAM", "Namibia", "Sub-Saharan Africa", "Windhoek", "Upper middle income", 0.0394995212554932, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("NAM", "Namibia", "Sub-Saharan Africa", "Windhoek", "Upper middle income", 0.0394995212554932, 3.0732196431391126, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -1874,7 +1874,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("NER", "Niger", "Sub-Saharan Africa", "Niamey", "Low income", -0.639215767383575, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("NER", "Niger", "Sub-Saharan Africa", "Niamey", "Low income", -0.639215767383575, 19.93583484645141, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -1884,7 +1884,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("NGA", "Nigeria", "Sub-Saharan Africa", "Abuja", "Lower middle income", -1.03512346744537, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("NGA", "Nigeria", "Sub-Saharan Africa", "Abuja", "Lower middle income", -1.03512346744537, 234.30868715482504, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -1894,7 +1894,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("NIC", "Nicaragua", "Latin America &amp; Caribbean", "Managua", "Lower middle income", -1.03581631183624, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("NIC", "Nicaragua", "Latin America &amp; Caribbean", "Managua", "Lower middle income", -1.03581631183624, 56.92654146584677, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -1914,7 +1914,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("NLD", "Netherlands", "Europe &amp; Central Asia", "Amsterdam", "High income: OECD", 1.57946932315826, NULL, "Developed", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("NLD", "Netherlands", "Europe &amp; Central Asia", "Amsterdam", "High income: OECD", 1.57946932315826, 520.7319275319276, "Developed", "NULL");</t>
         </is>
       </c>
     </row>
@@ -1924,7 +1924,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("NOR", "Norway", "Europe &amp; Central Asia", "Oslo", "High income: OECD", 1.94218063354492, NULL, "Developed", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("NOR", "Norway", "Europe &amp; Central Asia", "Oslo", "High income: OECD", 1.94218063354492, 14.847009086666484, "Developed", "NULL");</t>
         </is>
       </c>
     </row>
@@ -1934,7 +1934,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("NPL", "Nepal", "South Asia", "Kathmandu", "Low income", -0.917344748973846, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("NPL", "Nepal", "South Asia", "Kathmandu", "Low income", -0.917344748973846, 209.52207185211023, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -1944,7 +1944,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("NRU", "Nauru", "East Asia &amp; Pacific", "NULL", "Upper middle income", 0.199985399842262, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("NRU", "Nauru", "East Asia &amp; Pacific", "NULL", "Upper middle income", 0.199985399842262, 625.55, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -1954,7 +1954,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("NZL", "New Zealand", "East Asia &amp; Pacific", "Wellington", "High income: OECD", 1.34053194522858, NULL, "Developed", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("NZL", "New Zealand", "East Asia &amp; Pacific", "Wellington", "High income: OECD", 1.34053194522858, 19.41209980631195, "Developed", "NULL");</t>
         </is>
       </c>
     </row>
@@ -1964,7 +1964,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("OMN", "Oman", "Middle East &amp; North Africa", "Muscat", "High income: nonOECD", 0.0220412891358137, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("OMN", "Oman", "Middle East &amp; North Africa", "Muscat", "High income: nonOECD", 0.0220412891358137, 14.605722132471728, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -1974,7 +1974,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("PAK", "Pakistan", "South Asia", "Islamabad", "Lower middle income", -0.623640716075897, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("PAK", "Pakistan", "South Asia", "Islamabad", "Lower middle income", -0.623640716075897, 300.17916796388545, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -1984,7 +1984,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("PAN", "Panama", "Latin America &amp; Caribbean", "Panama City", "Upper middle income", -0.127450808882713, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("PAN", "Panama", "Latin America &amp; Caribbean", "Panama City", "Upper middle income", -0.127450808882713, 58.65822324076571, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -1994,7 +1994,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("PER", "Peru", "Latin America &amp; Caribbean", "Lima", "Upper middle income", -0.39776611328125, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("PER", "Peru", "Latin America &amp; Caribbean", "Lima", "Upper middle income", -0.39776611328125, 26.34021171875, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -2004,7 +2004,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("PHL", "Philippines", "East Asia &amp; Pacific", "Manila", "Lower middle income", 0.0647772029042244, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("PHL", "Philippines", "East Asia &amp; Pacific", "Manila", "Lower middle income", 0.0647772029042244, 381.9308716504008, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -2014,7 +2014,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("PLW", "Palau", "East Asia &amp; Pacific", "Koror", "Upper middle income", 0.449828535318375, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("PLW", "Palau", "East Asia &amp; Pacific", "Koror", "Upper middle income", 0.449828535318375, 39.18260869565217, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -2024,7 +2024,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("PNG", "Papua New Guinea", "East Asia &amp; Pacific", "Port Moresby", "Lower middle income", -0.807290256023407, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("PNG", "Papua New Guinea", "East Asia &amp; Pacific", "Port Moresby", "Lower middle income", -0.807290256023407, 21.970227001722385, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -2034,7 +2034,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("POL", "Poland", "Europe &amp; Central Asia", "Warsaw", "High income: OECD", 0.25948902964592, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("POL", "Poland", "Europe &amp; Central Asia", "Warsaw", "High income: OECD", 0.25948902964592, 123.31631492976152, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -2054,7 +2054,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("PRK", "Korea, Dem. Rep.", "East Asia &amp; Pacific", "Pyongyang", "Low income", -1.46298551559448, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("PRK", "Korea, Dem. Rep.", "East Asia &amp; Pacific", "Pyongyang", "Low income", -1.46298551559448, 215.69561498214435, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -2064,7 +2064,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("PRT", "Portugal", "Europe &amp; Central Asia", "Lisbon", "High income: OECD", 1.00159108638763, NULL, "Developed", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("PRT", "Portugal", "Europe &amp; Central Asia", "Lisbon", "High income: OECD", 1.00159108638763, 113.11351052774066, "Developed", "NULL");</t>
         </is>
       </c>
     </row>
@@ -2074,7 +2074,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("PRY", "Paraguay", "Latin America &amp; Caribbean", "Asuncion", "Lower middle income", -0.613315761089325, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("PRY", "Paraguay", "Latin America &amp; Caribbean", "Asuncion", "Lower middle income", -0.613315761089325, 16.8733929020891, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -2094,7 +2094,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("QAT", "Qatar", "Middle East &amp; North Africa", "Doha", "High income: nonOECD", 1.13682854175568, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("QAT", "Qatar", "Middle East &amp; North Africa", "Doha", "High income: nonOECD", 1.13682854175568, 233.96301131418625, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -2114,7 +2114,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("RUS", "Russian Federation", "Europe &amp; Central Asia", "Moscow", "Upper middle income", -0.695411026477814, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("RUS", "Russian Federation", "Europe &amp; Central Asia", "Moscow", "Upper middle income", -0.695411026477814, 8.80085645181283, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -2124,7 +2124,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("RWA", "Rwanda", "Sub-Saharan Africa", "Kigali", "Low income", 0.232485979795456, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("RWA", "Rwanda", "Sub-Saharan Africa", "Kigali", "Low income", 0.232485979795456, 545.6784758816376, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -2134,7 +2134,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("SAU", "Saudi Arabia", "Middle East &amp; North Africa", "Riyadh", "High income: nonOECD", 0.583050787448883, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("SAU", "Saudi Arabia", "Middle East &amp; North Africa", "Riyadh", "High income: nonOECD", 0.583050787448883, 16.723525717661616, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -2144,7 +2144,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("SDN", "Sudan", "Sub-Saharan Africa", "Khartoum", "Lower middle income", -1.70530915260315, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("SDN", "Sudan", "Sub-Saharan Africa", "Khartoum", "Lower middle income", -1.70530915260315, 24.441756959314777, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -2154,7 +2154,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("SEN", "Senegal", "Sub-Saharan Africa", "Dakar", "Lower middle income", -0.00124927773140371, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("SEN", "Senegal", "Sub-Saharan Africa", "Dakar", "Lower middle income", -0.00124927773140371, 87.65761180075832, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -2164,7 +2164,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("SGP", "Singapore", "East Asia &amp; Pacific", "Singapore", "High income: nonOECD", 2.14482593536377, NULL, "Developed", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("SGP", "Singapore", "East Asia &amp; Pacific", "Singapore", "High income: nonOECD", 2.14482593536377, 7595.49582172702, "Developed", "NULL");</t>
         </is>
       </c>
     </row>
@@ -2174,7 +2174,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("SLB", "Solomon Islands", "East Asia &amp; Pacific", "Honiara", "Lower middle income", -0.674787521362305, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("SLB", "Solomon Islands", "East Asia &amp; Pacific", "Honiara", "Lower middle income", -0.674787521362305, 25.289424794569488, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -2184,7 +2184,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("SLE", "Sierra Leone", "Sub-Saharan Africa", "Freetown", "Low income", -1.16025280952454, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("SLE", "Sierra Leone", "Sub-Saharan Africa", "Freetown", "Low income", -1.16025280952454, 116.66169298974785, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -2194,7 +2194,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("SLV", "El Salvador", "Latin America &amp; Caribbean", "San Salvador", "Lower middle income", -0.320332825183868, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("SLV", "El Salvador", "Latin America &amp; Caribbean", "San Salvador", "Lower middle income", -0.320332825183868, 304.7377895752896, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -2204,7 +2204,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("SMR", "San Marino", "Europe &amp; Central Asia", "San Marino", "High income: nonOECD", 1.77110064029694, NULL, "Developed", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("SMR", "San Marino", "Europe &amp; Central Asia", "San Marino", "High income: nonOECD", 1.77110064029694, 562.4166666666666, "Developed", "NULL");</t>
         </is>
       </c>
     </row>
@@ -2214,7 +2214,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("SOM", "Somalia", "Sub-Saharan Africa", "Mogadishu", "Low income", -2.02636790275574, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("SOM", "Somalia", "Sub-Saharan Africa", "Mogadishu", "Low income", -2.02636790275574, 27.203081263748526, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -2224,7 +2224,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("SRB", "Serbia", "Europe &amp; Central Asia", "Belgrade", "Upper middle income", 0.0656684786081314, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("SRB", "Serbia", "Europe &amp; Central Asia", "Belgrade", "Upper middle income", 0.0656684786081314, 81.27394458318469, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -2234,7 +2234,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("STP", "Sao Tome and Principe", "Sub-Saharan Africa", "Sao Tome", "Lower middle income", -0.843731462955475, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("STP", "Sao Tome and Principe", "Sub-Saharan Africa", "Sao Tome", "Lower middle income", -0.843731462955475, 232.403125, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -2244,7 +2244,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("SUR", "Suriname", "Latin America &amp; Caribbean", "Paramaribo", "Upper middle income", -0.943955838680267, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("SUR", "Suriname", "Latin America &amp; Caribbean", "Paramaribo", "Upper middle income", -0.943955838680267, 3.9293910256410256, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -2254,7 +2254,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("SVK", "Slovak Republic", "Europe &amp; Central Asia", "Bratislava", "High income: OECD", 0.378621488809586, NULL, "Developed", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("SVK", "Slovak Republic", "Europe &amp; Central Asia", "Bratislava", "High income: OECD", 0.378621488809586, 113.29548668885191, "Developed", "NULL");</t>
         </is>
       </c>
     </row>
@@ -2264,7 +2264,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("SVN", "Slovenia", "Europe &amp; Central Asia", "Ljubljana", "High income: OECD", 1.0690666437149, NULL, "Developed", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("SVN", "Slovenia", "Europe &amp; Central Asia", "Ljubljana", "High income: OECD", 1.0690666437149, 104.68996444250213, "Developed", "NULL");</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("SWE", "Sweden", "Europe &amp; Central Asia", "Stockholm", "High income: OECD", 1.57297706604004, NULL, "Developed", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("SWE", "Sweden", "Europe &amp; Central Asia", "Stockholm", "High income: OECD", 1.57297706604004, 25.57385697443113, "Developed", "NULL");</t>
         </is>
       </c>
     </row>
@@ -2284,7 +2284,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("SWZ", "Swaziland", "Sub-Saharan Africa", "Mbabane", "Lower middle income", -0.686120450496674, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("SWZ", "Swaziland", "Sub-Saharan Africa", "Mbabane", "Lower middle income", -0.686120450496674, 69.31808139534884, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -2304,7 +2304,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("SYC", "Seychelles", "Sub-Saharan Africa", "Victoria", "Upper middle income", 0.662167310714722, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("SYC", "Seychelles", "Sub-Saharan Africa", "Victoria", "Upper middle income", 0.662167310714722, 215.77826086956523, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -2314,7 +2314,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("SYR", "Syrian Arab Republic", "Middle East &amp; North Africa", "Damascus", "Lower middle income", -1.75204491615295, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("SYR", "Syrian Arab Republic", "Middle East &amp; North Africa", "Damascus", "Lower middle income", -1.75204491615295, 116.12681479061156, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -2334,7 +2334,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("TCD", "Chad", "Sub-Saharan Africa", "N'Djamena", "Low income", -1.42290568351746, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("TCD", "Chad", "Sub-Saharan Africa", "N'Djamena", "Low income", -1.42290568351746, 13.643376747141042, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("TGO", "Togo", "Sub-Saharan Africa", "Lome", "Low income", -0.64258873462677, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("TGO", "Togo", "Sub-Saharan Africa", "Lome", "Low income", -0.64258873462677, 158.94151498437213, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -2354,7 +2354,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("THA", "Thailand", "East Asia &amp; Pacific", "Bangkok", "Upper middle income", 0.128285065293312, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("THA", "Thailand", "East Asia &amp; Pacific", "Bangkok", "Upper middle income", 0.128285065293312, 140.14974456340894, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -2364,7 +2364,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("TJK", "Tajikistan", "Europe &amp; Central Asia", "Dushanbe", "Low income", -0.756126046180725, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("TJK", "Tajikistan", "Europe &amp; Central Asia", "Dushanbe", "Low income", -0.756126046180725, 70.2504791411485, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -2374,7 +2374,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("TKM", "Turkmenistan", "Europe &amp; Central Asia", "Ashgabat", "Lower middle income", -1.1583536863327, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("TKM", "Turkmenistan", "Europe &amp; Central Asia", "Ashgabat", "Lower middle income", -1.1583536863327, 13.495318451684293, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -2394,7 +2394,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("TON", "Tonga", "East Asia &amp; Pacific", "Nuku'alofa", "Lower middle income", -0.16647757589817, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("TON", "Tonga", "East Asia &amp; Pacific", "Nuku'alofa", "Lower middle income", -0.16647757589817, 147.24583333333334, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -2404,7 +2404,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("TTO", "Trinidad and Tobago", "Latin America &amp; Caribbean", "Port-of-Spain", "High income: nonOECD", -0.0251202769577503, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("TTO", "Trinidad and Tobago", "Latin America &amp; Caribbean", "Port-of-Spain", "High income: nonOECD", -0.0251202769577503, 297.40019493177385, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -2414,7 +2414,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("TUN", "Tunisia", "Middle East &amp; North Africa", "Tunis", "Upper middle income", -0.299408107995987, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("TUN", "Tunisia", "Middle East &amp; North Africa", "Tunis", "Upper middle income", -0.299408107995987, 78.93245365602472, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -2424,7 +2424,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("TUR", "Turkey", "Europe &amp; Central Asia", "Ankara", "Upper middle income", -0.19902965426445, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("TUR", "Turkey", "Europe &amp; Central Asia", "Ankara", "Upper middle income", -0.19902965426445, 109.33476865506802, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -2434,7 +2434,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("TUV", "Tuvalu", "East Asia &amp; Pacific", "Funafuti", "Lower middle income", -0.311674624681473, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("TUV", "Tuvalu", "East Asia &amp; Pacific", "Funafuti", "Lower middle income", -0.311674624681473, 373.46666666666664, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -2444,7 +2444,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("TZA", "Tanzania", "Sub-Saharan Africa", "Dodoma", "Low income", -0.42673471570015, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("TZA", "Tanzania", "Sub-Saharan Africa", "Dodoma", "Low income", -0.42673471570015, 71.7863332580718, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -2454,7 +2454,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("UGA", "Uganda", "Sub-Saharan Africa", "Kampala", "Low income", -0.583969175815582, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("UGA", "Uganda", "Sub-Saharan Africa", "Kampala", "Low income", -0.583969175815582, 228.67433672451625, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -2464,7 +2464,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("UKR", "Ukraine", "Europe &amp; Central Asia", "Kiev", "Lower middle income", -0.496294170618057, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("UKR", "Ukraine", "Europe &amp; Central Asia", "Kiev", "Lower middle income", -0.496294170618057, 75.63496893337935, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -2474,7 +2474,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("URY", "Uruguay", "Latin America &amp; Caribbean", "Montevideo", "Upper middle income", 0.849962711334229, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("URY", "Uruguay", "Latin America &amp; Caribbean", "Montevideo", "Upper middle income", 0.849962711334229, 19.576391269569193, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -2484,7 +2484,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("USA", "United States", "North America", "Washington D.C.", "High income: OECD", 1.25599312782288, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("USA", "United States", "North America", "Washington D.C.", "High income: OECD", 1.25599312782288, 36.29783632980666, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -2494,7 +2494,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("UZB", "Uzbekistan", "Europe &amp; Central Asia", "Tashkent", "Lower middle income", -0.329515904188156, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("UZB", "Uzbekistan", "Europe &amp; Central Asia", "Tashkent", "Lower middle income", -0.329515904188156, 79.23490819306801, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -2504,7 +2504,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("VCT", "St. Vincent and the Grenadines", "Latin America &amp; Caribbean", "Kingstown", "Upper middle income", 0.317980945110321, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("VCT", "St. Vincent and the Grenadines", "Latin America &amp; Caribbean", "Kingstown", "Upper middle income", 0.317980945110321, 267.51794871794874, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -2514,7 +2514,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("VEN", "Venezuela, RB", "Latin America &amp; Caribbean", "Caracas", "Upper middle income", -1.68818092346191, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("VEN", "Venezuela, RB", "Latin America &amp; Caribbean", "Caracas", "Upper middle income", -1.68818092346191, 31.970825916898136, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -2534,7 +2534,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("VNM", "Vietnam", "East Asia &amp; Pacific", "Hanoi", "Lower middle income", 0.17549079656601, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("VNM", "Vietnam", "East Asia &amp; Pacific", "Hanoi", "Lower middle income", 0.17549079656601, 310.9732315771674, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -2544,7 +2544,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("VUT", "Vanuatu", "East Asia &amp; Pacific", "Port-Vila", "Lower middle income", -0.536280393600464, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("VUT", "Vanuatu", "East Asia &amp; Pacific", "Port-Vila", "Lower middle income", -0.536280393600464, 26.18022969647252, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2564,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("WSM", "Samoa", "East Asia &amp; Pacific", "Apia", "Lower middle income", 0.304703801870346, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("WSM", "Samoa", "East Asia &amp; Pacific", "Apia", "Lower middle income", 0.304703801870346, 78.69208633093525, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -2574,7 +2574,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("YEM", "Yemen, Rep.", "Middle East &amp; North Africa", "Sana'a", "Lower middle income", -2.23254156112671, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("YEM", "Yemen, Rep.", "Middle East &amp; North Africa", "Sana'a", "Lower middle income", -2.23254156112671, 62.46877852908309, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("ZAF", "South Africa", "Sub-Saharan Africa", "Pretoria", "Upper middle income", -0.125317960977554, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("ZAF", "South Africa", "Sub-Saharan Africa", "Pretoria", "Upper middle income", -0.125317960977554, 48.95947951100083, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -2604,7 +2604,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("ZMB", "Zambia", "Sub-Saharan Africa", "Lusaka", "Lower middle income", -0.658232748508453, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("ZMB", "Zambia", "Sub-Saharan Africa", "Lusaka", "Lower middle income", -0.658232748508453, 26.195032217274917, "Developing", "NULL");</t>
         </is>
       </c>
     </row>
@@ -2614,7 +2614,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("ZWE", "Zimbabwe", "Sub-Saharan Africa", "Harare", "Low income", -1.25461292266846, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("ZWE", "Zimbabwe", "Sub-Saharan Africa", "Harare", "Low income", -1.25461292266846, 41.342959803541426, "Developing", "NULL");</t>
         </is>
       </c>
     </row>

--- a/Country_Data_SQL.xlsx
+++ b/Country_Data_SQL.xlsx
@@ -444,7 +444,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("ABW", "Aruba", "Latin America &amp; Caribbean", "Oranjestad", "High income: nonOECD", NULL, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("ABW", "Aruba", "Latin America &amp; Caribbean", "Oranjestad", "High income: nonOECD", NULL, NULL, "Developing", NULL);</t>
         </is>
       </c>
     </row>
@@ -454,7 +454,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("ADO", "Andorra", "Europe &amp; Central Asia", "Andorra la Vella", "High income: nonOECD", NULL, NULL, "Developed", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("ADO", "Andorra", "Europe &amp; Central Asia", "Andorra la Vella", "High income: nonOECD", NULL, NULL, "Developed", NULL);</t>
         </is>
       </c>
     </row>
@@ -464,7 +464,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("AFG", "Afghanistan", "South Asia", "Kabul", "Low income", -1.87955236434937, 61.480554405654445, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("AFG", "Afghanistan", "South Asia", "Kabul", "Low income", -1.87955236434937, 61.480554405654445, "Developing", "SAARC");</t>
         </is>
       </c>
     </row>
@@ -474,7 +474,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("AGO", "Angola", "Sub-Saharan Africa", "Luanda", "Lower middle income", -1.04042935371399, 27.67608406192348, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("AGO", "Angola", "Sub-Saharan Africa", "Luanda", "Lower middle income", -1.04042935371399, 27.67608406192348, "Developing", NULL);</t>
         </is>
       </c>
     </row>
@@ -484,7 +484,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("ALB", "Albania", "Europe &amp; Central Asia", "Tirane", "Upper middle income", 0.0650628432631493, 102.61554744525547, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("ALB", "Albania", "Europe &amp; Central Asia", "Tirane", "Upper middle income", 0.0650628432631493, 102.61554744525547, "Developing", "CEFTA");</t>
         </is>
       </c>
     </row>
@@ -494,7 +494,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("ARE", "United Arab Emirates", "Middle East &amp; North Africa", "Abu Dhabi", "High income: nonOECD", 1.29996228218079, 131.86630526612223, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("ARE", "United Arab Emirates", "Middle East &amp; North Africa", "Abu Dhabi", "High income: nonOECD", 1.29996228218079, 131.86630526612223, "Developing", "GCC");</t>
         </is>
       </c>
     </row>
@@ -504,7 +504,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("ARG", "Argentina", "Latin America &amp; Caribbean", "Buenos Aires", "Upper middle income", -0.282877296209335, 16.738741691605554, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("ARG", "Argentina", "Latin America &amp; Caribbean", "Buenos Aires", "Upper middle income", -0.282877296209335, 16.738741691605554, "Developing", "USAN");</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("ARM", "Armenia", "Europe &amp; Central Asia", "Yerevan", "Lower middle income", -0.314229518175125, 98.03210396909027, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("ARM", "Armenia", "Europe &amp; Central Asia", "Yerevan", "Lower middle income", -0.314229518175125, 98.03210396909027, "Developing", NULL);</t>
         </is>
       </c>
     </row>
@@ -524,7 +524,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("ASM", "American Samoa", "East Asia &amp; Pacific", "Pago Pago", "Upper middle income", NULL, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("ASM", "American Samoa", "East Asia &amp; Pacific", "Pago Pago", "Upper middle income", NULL, NULL, "Developing", NULL);</t>
         </is>
       </c>
     </row>
@@ -534,7 +534,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("ATG", "Antigua and Barbuda", "Latin America &amp; Caribbean", "Saint John's", "Upper middle income", -0.159468576312065, 211.86136363636365, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("ATG", "Antigua and Barbuda", "Latin America &amp; Caribbean", "Saint John's", "Upper middle income", -0.159468576312065, 211.86136363636365, "Developing", "CARICOM");</t>
         </is>
       </c>
     </row>
@@ -544,7 +544,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("AUS", "Australia", "East Asia &amp; Pacific", "Canberra", "High income: OECD", 1.52887463569641, 3.339228447143923, "Developed", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("AUS", "Australia", "East Asia &amp; Pacific", "Canberra", "High income: OECD", 1.52887463569641, 3.339228447143923, "Developed", NULL);</t>
         </is>
       </c>
     </row>
@@ -554,7 +554,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("AUT", "Austria", "Europe &amp; Central Asia", "Vienna", "High income: OECD", 1.46545016765594, 108.52880513814833, "Developed", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("AUT", "Austria", "Europe &amp; Central Asia", "Vienna", "High income: OECD", 1.46545016765594, 108.52880513814833, "Developed", "EU");</t>
         </is>
       </c>
     </row>
@@ -564,7 +564,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("AZE", "Azerbaijan", "Europe &amp; Central Asia", "Baku", "Upper middle income", -0.0406579151749611, 122.65880217785843, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("AZE", "Azerbaijan", "Europe &amp; Central Asia", "Baku", "Upper middle income", -0.0406579151749611, 122.65880217785843, "Developing", NULL);</t>
         </is>
       </c>
     </row>
@@ -574,7 +574,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("BDI", "Burundi", "Sub-Saharan Africa", "Bujumbura", "Low income", -1.26284074783325, 488.75440031152647, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("BDI", "Burundi", "Sub-Saharan Africa", "Bujumbura", "Low income", -1.26284074783325, 488.75440031152647, "Developing", NULL);</t>
         </is>
       </c>
     </row>
@@ -584,7 +584,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("BEL", "Belgium", "Europe &amp; Central Asia", "Brussels", "High income: OECD", 1.22765874862671, 382.63523778071334, "Developed", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("BEL", "Belgium", "Europe &amp; Central Asia", "Brussels", "High income: OECD", 1.22765874862671, 382.63523778071334, "Developed", "EU");</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("BEN", "Benin", "Sub-Saharan Africa", "Porto-Novo", "Low income", -0.164296001195908, 115.26157325292657, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("BEN", "Benin", "Sub-Saharan Africa", "Porto-Novo", "Low income", -0.164296001195908, 115.26157325292657, "Developing", NULL);</t>
         </is>
       </c>
     </row>
@@ -604,7 +604,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("BFA", "Burkina Faso", "Sub-Saharan Africa", "Ouagadougou", "Low income", -0.825155377388, 80.77735014619883, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("BFA", "Burkina Faso", "Sub-Saharan Africa", "Ouagadougou", "Low income", -0.825155377388, 80.77735014619883, "Developing", NULL);</t>
         </is>
       </c>
     </row>
@@ -614,7 +614,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("BGD", "Bangladesh", "South Asia", "Dhaka", "Low income", -0.76255190372467, 1301.0390335714835, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("BGD", "Bangladesh", "South Asia", "Dhaka", "Low income", -0.76255190372467, 1301.0390335714835, "Developing", "SAARC");</t>
         </is>
       </c>
     </row>
@@ -624,7 +624,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("BGR", "Bulgaria", "Europe &amp; Central Asia", "Sofia", "Upper middle income", -0.270799845457077, 63.35430176860722, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("BGR", "Bulgaria", "Europe &amp; Central Asia", "Sofia", "Upper middle income", -0.270799845457077, 63.35430176860722, "Developing", "EU");</t>
         </is>
       </c>
     </row>
@@ -634,7 +634,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("BHR", "Bahrain", "Middle East &amp; North Africa", "Manama", "High income: nonOECD", 0.640424907207489, 1852.23417721519, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("BHR", "Bahrain", "Middle East &amp; North Africa", "Manama", "High income: nonOECD", 0.640424907207489, 1852.23417721519, "Developing", "GCC");</t>
         </is>
       </c>
     </row>
@@ -644,7 +644,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("BHS", "Bahamas, The", "Latin America &amp; Caribbean", "Nassau", "High income: nonOECD", 0.424218326807022, 40.74985014985015, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("BHS", "Bahamas, The", "Latin America &amp; Caribbean", "Nassau", "High income: nonOECD", 0.424218326807022, 40.74985014985015, "Developing", NULL);</t>
         </is>
       </c>
     </row>
@@ -654,7 +654,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("BIH", "Bosnia and Herzegovina", "Europe &amp; Central Asia", "Sarajevo", "Upper middle income", -1.06442642211914, 63.88560546875, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("BIH", "Bosnia and Herzegovina", "Europe &amp; Central Asia", "Sarajevo", "Upper middle income", -1.06442642211914, 63.88560546875, "Developing", "CEFTA");</t>
         </is>
       </c>
     </row>
@@ -664,7 +664,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("BLR", "Belarus", "Europe &amp; Central Asia", "Minsk", "Upper middle income", -0.851105093955994, 45.83683173195368, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("BLR", "Belarus", "Europe &amp; Central Asia", "Minsk", "Upper middle income", -0.851105093955994, 45.83683173195368, "Developing", NULL);</t>
         </is>
       </c>
     </row>
@@ -674,7 +674,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("BLZ", "Belize", "Latin America &amp; Caribbean", "Belmopan", "Lower middle income", -0.356178641319275, 17.53752740026304, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("BLZ", "Belize", "Latin America &amp; Caribbean", "Belmopan", "Lower middle income", -0.356178641319275, 17.53752740026304, "Developing", "CAIS");</t>
         </is>
       </c>
     </row>
@@ -684,7 +684,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("BMU", "Bermuda", "North America", "Hamilton", "High income: nonOECD", NULL, NULL, "Developed", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("BMU", "Bermuda", "North America", "Hamilton", "High income: nonOECD", NULL, NULL, "Developed", NULL);</t>
         </is>
       </c>
     </row>
@@ -694,7 +694,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("BOL", "Bolivia", "Latin America &amp; Caribbean", "La Paz", "Lower middle income", -0.563976764678955, 11.150624942305917, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("BOL", "Bolivia", "Latin America &amp; Caribbean", "La Paz", "Lower middle income", -0.563976764678955, 11.150624942305917, "Developing", "USAN");</t>
         </is>
       </c>
     </row>
@@ -704,7 +704,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("BRA", "Brazil", "Latin America &amp; Caribbean", "Brasilia", "Upper middle income", -0.587532162666321, 25.64281323356632, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("BRA", "Brazil", "Latin America &amp; Caribbean", "Brasilia", "Upper middle income", -0.587532162666321, 25.64281323356632, "Developing", "USAN");</t>
         </is>
       </c>
     </row>
@@ -714,7 +714,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("BRB", "Barbados", "Latin America &amp; Caribbean", "Bridgetown", "High income: nonOECD", 0.428703635931015, 653.953488372093, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("BRB", "Barbados", "Latin America &amp; Caribbean", "Bridgetown", "High income: nonOECD", 0.428703635931015, 653.953488372093, "Developing", "CARICOM");</t>
         </is>
       </c>
     </row>
@@ -724,7 +724,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("BRN", "Brunei Darussalam", "East Asia &amp; Pacific", "Bandar Seri Begawan", "High income: nonOECD", 1.4222446680069, 84.51100569259962, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("BRN", "Brunei Darussalam", "East Asia &amp; Pacific", "Bandar Seri Begawan", "High income: nonOECD", 1.4222446680069, 84.51100569259962, "Developing", NULL);</t>
         </is>
       </c>
     </row>
@@ -734,7 +734,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("BTN", "Bhutan", "South Asia", "Thimphu", "Lower middle income", 0.556007385253906, 20.385055060304143, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("BTN", "Bhutan", "South Asia", "Thimphu", "Lower middle income", 0.556007385253906, 20.385055060304143, "Developing", "SAARC");</t>
         </is>
       </c>
     </row>
@@ -744,7 +744,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("BWA", "Botswana", "Sub-Saharan Africa", "Gaborone", "Upper middle income", 0.463997155427933, 4.567294831754098, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("BWA", "Botswana", "Sub-Saharan Africa", "Gaborone", "Upper middle income", 0.463997155427933, 4.567294831754098, "Developing", NULL);</t>
         </is>
       </c>
     </row>
@@ -754,7 +754,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("CAF", "Central African Republic", "Sub-Saharan Africa", "Bangui", "Low income", -1.7093962430954, 8.759757937654499, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("CAF", "Central African Republic", "Sub-Saharan Africa", "Bangui", "Low income", -1.7093962430954, 8.759757937654499, "Developing", NULL);</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("CAN", "Canada", "North America", "Ottawa", "High income: OECD", 1.56707048416138, 4.3495053875999865, "Developed", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("CAN", "Canada", "North America", "Ottawa", "High income: OECD", 1.56707048416138, 4.3495053875999865, "Developed", "USMCA");</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("CHE", "Switzerland", "Europe &amp; Central Asia", "Bern", "High income: OECD", 2.04994893074036, 220.31454103721043, "Developed", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("CHE", "Switzerland", "Europe &amp; Central Asia", "Bern", "High income: OECD", 2.04994893074036, 220.31454103721043, "Developed", "EFTA");</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("CHI", "Channel Islands", "Europe &amp; Central Asia", "NULL", "High income: nonOECD", NULL, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("CHI", "Channel Islands", "Europe &amp; Central Asia", NULL, "High income: nonOECD", NULL, NULL, "Developing", NULL);</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("CHL", "Chile", "Latin America &amp; Caribbean", "Santiago", "Upper middle income", 0.546773970127106, 26.217007472442344, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("CHL", "Chile", "Latin America &amp; Caribbean", "Santiago", "Upper middle income", 0.546773970127106, 26.217007472442344, "Developing", "USAN");</t>
         </is>
       </c>
     </row>
@@ -804,7 +804,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("CHN", "China", "East Asia &amp; Pacific", "Beijing", "Upper middle income", 0.495032012462616, 150.4397536910657, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("CHN", "China", "East Asia &amp; Pacific", "Beijing", "Upper middle income", 0.495032012462616, 150.4397536910657, "Developing", NULL);</t>
         </is>
       </c>
     </row>
@@ -814,7 +814,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("CIV", "Cote d'Ivoire", "Sub-Saharan Africa", "Yamoussoukro", "Lower middle income", -0.342977225780487, 86.40958805031447, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("CIV", "Cote d'Ivoire", "Sub-Saharan Africa", "Yamoussoukro", "Lower middle income", -0.342977225780487, 86.40958805031447, "Developing", NULL);</t>
         </is>
       </c>
     </row>
@@ -824,7 +824,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("CMR", "Cameroon", "Sub-Saharan Africa", "Yaounde", "Lower middle income", -0.881544709205627, 57.53766156840346, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("CMR", "Cameroon", "Sub-Saharan Africa", "Yaounde", "Lower middle income", -0.881544709205627, 57.53766156840346, "Developing", NULL);</t>
         </is>
       </c>
     </row>
@@ -834,7 +834,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("COG", "Congo, Rep.", "Sub-Saharan Africa", "Brazzaville", "Lower middle income", -1.36932182312012, 17.088743777452414, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("COG", "Congo, Rep.", "Sub-Saharan Africa", "Brazzaville", "Lower middle income", -1.36932182312012, 17.088743777452414, "Developing", NULL);</t>
         </is>
       </c>
     </row>
@@ -844,7 +844,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("COK", "Cook Islands", "East Asia &amp; Pacific", "Avarua", "Upper middle income", NULL, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("COK", "Cook Islands", "East Asia &amp; Pacific", "Avarua", "Upper middle income", NULL, NULL, "Developing", NULL);</t>
         </is>
       </c>
     </row>
@@ -854,7 +854,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("COL", "Colombia", "Latin America &amp; Caribbean", "Bogota", "Upper middle income", 0.0144156282767653, 46.43223253717891, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("COL", "Colombia", "Latin America &amp; Caribbean", "Bogota", "Upper middle income", 0.0144156282767653, 46.43223253717891, "Developing", "USAN");</t>
         </is>
       </c>
     </row>
@@ -864,7 +864,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("COM", "Comoros", "Sub-Saharan Africa", "Moroni", "Low income", -1.68251287937164, 441.49650725416444, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("COM", "Comoros", "Sub-Saharan Africa", "Moroni", "Low income", -1.68251287937164, 441.49650725416444, "Developing", NULL);</t>
         </is>
       </c>
     </row>
@@ -874,7 +874,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("CPV", "Cape Verde", "Sub-Saharan Africa", "Praia", "Lower middle income", -0.0262028370052576, 145.88709677419354, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("CPV", "Cape Verde", "Sub-Saharan Africa", "Praia", "Lower middle income", -0.0262028370052576, 145.88709677419354, "Developing", NULL);</t>
         </is>
       </c>
     </row>
@@ -884,7 +884,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("CRI", "Costa Rica", "Latin America &amp; Caribbean", "San Jose", "Upper middle income", 0.0532664284110069, 100.93922835879357, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("CRI", "Costa Rica", "Latin America &amp; Caribbean", "San Jose", "Upper middle income", 0.0532664284110069, 100.93922835879357, "Developing", "CAIS");</t>
         </is>
       </c>
     </row>
@@ -894,7 +894,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("CUB", "Cuba", "Latin America &amp; Caribbean", "Havana", "Upper middle income", -0.350331842899323, 108.4428901734104, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("CUB", "Cuba", "Latin America &amp; Caribbean", "Havana", "Upper middle income", -0.350331842899323, 108.4428901734104, "Developing", NULL);</t>
         </is>
       </c>
     </row>
@@ -904,7 +904,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("CUW", "Curacao", "Latin America &amp; Caribbean", "Willemstad", "High income: nonOECD", NULL, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("CUW", "Curacao", "Latin America &amp; Caribbean", "Willemstad", "High income: nonOECD", NULL, NULL, "Developing", NULL);</t>
         </is>
       </c>
     </row>
@@ -914,7 +914,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("CYM", "Cayman Islands", "Latin America &amp; Caribbean", "George Town", "High income: nonOECD", NULL, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("CYM", "Cayman Islands", "Latin America &amp; Caribbean", "George Town", "High income: nonOECD", NULL, NULL, "Developing", NULL);</t>
         </is>
       </c>
     </row>
@@ -924,7 +924,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("CYP", "Cyprus", "Europe &amp; Central Asia", "Nicosia", "High income: nonOECD", 0.730678856372833, 134.65238095238095, "Developed", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("CYP", "Cyprus", "Europe &amp; Central Asia", "Nicosia", "High income: nonOECD", 0.730678856372833, 134.65238095238095, "Developed", "EU");</t>
         </is>
       </c>
     </row>
@@ -934,7 +934,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("CZE", "Czech Republic", "Europe &amp; Central Asia", "Prague", "High income: OECD", 1.0939074754715, 136.10834905384766, "Developed", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("CZE", "Czech Republic", "Europe &amp; Central Asia", "Prague", "High income: OECD", 1.0939074754715, 136.10834905384766, "Developed", "EU");</t>
         </is>
       </c>
     </row>
@@ -944,7 +944,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("DEU", "Germany", "Europe &amp; Central Asia", "Berlin", "High income: OECD", 1.2898074388504, 238.11808580669165, "Developed", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("DEU", "Germany", "Europe &amp; Central Asia", "Berlin", "High income: OECD", 1.2898074388504, 238.11808580669165, "Developed", "EU");</t>
         </is>
       </c>
     </row>
@@ -954,7 +954,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("DJI", "Djibouti", "Middle East &amp; North Africa", "Djibouti", "Lower middle income", -0.786164522171021, 47.69443485763589, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("DJI", "Djibouti", "Middle East &amp; North Africa", "Djibouti", "Lower middle income", -0.786164522171021, 47.69443485763589, "Developing", NULL);</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("DMA", "Dominica", "Latin America &amp; Caribbean", "Roseau", "Upper middle income", -0.0970938131213188, 96.54933333333334, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("DMA", "Dominica", "Latin America &amp; Caribbean", "Roseau", "Upper middle income", -0.0970938131213188, 96.54933333333334, "Developing", "CARICOM");</t>
         </is>
       </c>
     </row>
@@ -974,7 +974,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("DNK", "Denmark", "Europe &amp; Central Asia", "Copenhagen", "High income: OECD", 1.9906097650528, 146.418325, "Developed", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("DNK", "Denmark", "Europe &amp; Central Asia", "Copenhagen", "High income: OECD", 1.9906097650528, 146.418325, "Developed", "EU");</t>
         </is>
       </c>
     </row>
@@ -984,7 +984,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("DOM", "Dominican Republic", "Latin America &amp; Caribbean", "Santo Domingo", "Upper middle income", -0.0677330642938614, 233.90782857503524, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("DOM", "Dominican Republic", "Latin America &amp; Caribbean", "Santo Domingo", "Upper middle income", -0.0677330642938614, 233.90782857503524, "Developing", NULL);</t>
         </is>
       </c>
     </row>
@@ -994,7 +994,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("DZA", "Algeria", "Middle East &amp; North Africa", "Algiers", "Upper middle income", -0.513090252876282, 18.548603311611128, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("DZA", "Algeria", "Middle East &amp; North Africa", "Algiers", "Upper middle income", -0.513090252876282, 18.548603311611128, "Developing", NULL);</t>
         </is>
       </c>
     </row>
@@ -1004,7 +1004,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("ECU", "Ecuador", "Latin America &amp; Caribbean", "Quito", "Upper middle income", -0.308546245098114, 71.6610444516025, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("ECU", "Ecuador", "Latin America &amp; Caribbean", "Quito", "Upper middle income", -0.308546245098114, 71.6610444516025, "Developing", "USAN");</t>
         </is>
       </c>
     </row>
@@ -1014,7 +1014,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("EGY", "Egypt, Arab Rep.", "Middle East &amp; North Africa", "Cairo", "Lower middle income", -0.447546809911728, 109.76159324928425, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("EGY", "Egypt, Arab Rep.", "Middle East &amp; North Africa", "Cairo", "Lower middle income", -0.447546809911728, 109.76159324928425, "Developing", NULL);</t>
         </is>
       </c>
     </row>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("ERI", "Eritrea", "Sub-Saharan Africa", "Asmara", "Low income", -1.73040449619293, 29.909841413924884, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("ERI", "Eritrea", "Sub-Saharan Africa", "Asmara", "Low income", -1.73040449619293, 29.909841413924884, "Developing", NULL);</t>
         </is>
       </c>
     </row>
@@ -1034,7 +1034,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("ESP", "Spain", "Europe &amp; Central Asia", "Madrid", "High income: OECD", 0.92075788974762, 94.8822087969797, "Developed", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("ESP", "Spain", "Europe &amp; Central Asia", "Madrid", "High income: OECD", 0.92075788974762, 94.8822087969797, "Developed", "EU");</t>
         </is>
       </c>
     </row>
@@ -1044,7 +1044,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("EST", "Estonia", "Europe &amp; Central Asia", "Tallinn", "High income: OECD", 1.34313404560089, 31.132912280701753, "Developed", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("EST", "Estonia", "Europe &amp; Central Asia", "Tallinn", "High income: OECD", 1.34313404560089, 31.132912280701753, "Developed", "EU");</t>
         </is>
       </c>
     </row>
@@ -1054,7 +1054,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("ETH", "Ethiopia", "Sub-Saharan Africa", "Addis ababa", "Low income", -0.745265185832977, 106.57991190303787, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("ETH", "Ethiopia", "Sub-Saharan Africa", "Addis ababa", "Low income", -0.745265185832977, 106.57991190303787, "Developing", NULL);</t>
         </is>
       </c>
     </row>
@@ -1064,7 +1064,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("FIN", "Finland", "Europe &amp; Central Asia", "Helsinki", "High income: OECD", 1.75512683391571, 18.230165913412076, "Developed", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("FIN", "Finland", "Europe &amp; Central Asia", "Helsinki", "High income: OECD", 1.75512683391571, 18.230165913412076, "Developed", "EU");</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("FJI", "Fiji", "East Asia &amp; Pacific", "Suva", "Lower middle income", 0.591782867908478, 50.608100711548985, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("FJI", "Fiji", "East Asia &amp; Pacific", "Suva", "Lower middle income", 0.591782867908478, 50.608100711548985, "Developing", NULL);</t>
         </is>
       </c>
     </row>
@@ -1084,7 +1084,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("FRA", "France", "Europe &amp; Central Asia", "Paris", "High income: OECD", 1.165806889534, 123.75753391884315, "Developed", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("FRA", "France", "Europe &amp; Central Asia", "Paris", "High income: OECD", 1.165806889534, 123.75753391884315, "Developed", "EU");</t>
         </is>
       </c>
     </row>
@@ -1094,7 +1094,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("FRO", "Faeroe Islands", "Europe &amp; Central Asia", "Torshavn", "High income: nonOECD", NULL, NULL, "Developed", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("FRO", "Faeroe Islands", "Europe &amp; Central Asia", "Torshavn", "High income: nonOECD", NULL, NULL, "Developed", NULL);</t>
         </is>
       </c>
     </row>
@@ -1104,7 +1104,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("FSM", "Micronesia, Fed. Sts.", "East Asia &amp; Pacific", "Palikir", "Lower middle income", 0.379839152097702, 161.6157142857143, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("FSM", "Micronesia, Fed. Sts.", "East Asia &amp; Pacific", "Palikir", "Lower middle income", 0.379839152097702, 161.6157142857143, "Developing", NULL);</t>
         </is>
       </c>
     </row>
@@ -1114,7 +1114,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("GAB", "Gabon", "Sub-Saharan Africa", "Libreville", "Upper middle income", -0.726116597652435, 9.085958784491792, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("GAB", "Gabon", "Sub-Saharan Africa", "Libreville", "Upper middle income", -0.726116597652435, 9.085958784491792, "Developing", NULL);</t>
         </is>
       </c>
     </row>
@@ -1124,7 +1124,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("GBR", "United Kingdom", "Europe &amp; Central Asia", "London", "High income: OECD", 1.23863482475281, 277.0482866944984, "Developed", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("GBR", "United Kingdom", "Europe &amp; Central Asia", "London", "High income: OECD", 1.23863482475281, 277.0482866944984, "Developed", NULL);</t>
         </is>
       </c>
     </row>
@@ -1134,7 +1134,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("GEO", "Georgia", "Europe &amp; Central Asia", "Tbilisi", "Lower middle income", 0.650825500488281, 64.8834808775675, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("GEO", "Georgia", "Europe &amp; Central Asia", "Tbilisi", "Lower middle income", 0.650825500488281, 64.8834808775675, "Developing", NULL);</t>
         </is>
       </c>
     </row>
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("GHA", "Ghana", "Sub-Saharan Africa", "Accra", "Lower middle income", -0.0625455379486084, 144.3000839438675, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("GHA", "Ghana", "Sub-Saharan Africa", "Accra", "Lower middle income", -0.0625455379486084, 144.3000839438675, "Developing", NULL);</t>
         </is>
       </c>
     </row>
@@ -1154,7 +1154,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("GIB", "Gibraltar", "Europe &amp; Central Asia", "Gibraltar", "High income: nonOECD", NULL, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("GIB", "Gibraltar", "Europe &amp; Central Asia", "Gibraltar", "High income: nonOECD", NULL, NULL, "Developing", NULL);</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("GIN", "Guinea", "Sub-Saharan Africa", "Conakry", "Low income", -0.941579163074493, 55.0704297574475, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("GIN", "Guinea", "Sub-Saharan Africa", "Conakry", "Low income", -0.941579163074493, 55.0704297574475, "Developing", NULL);</t>
         </is>
       </c>
     </row>
@@ -1174,7 +1174,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("GMB", "Gambia, The", "Sub-Saharan Africa", "Banjul", "Low income", -0.674558699131012, 260.8612648221344, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("GMB", "Gambia, The", "Sub-Saharan Africa", "Banjul", "Low income", -0.674558699131012, 260.8612648221344, "Developing", NULL);</t>
         </is>
       </c>
     </row>
@@ -1184,7 +1184,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("GNB", "Guinea-Bissau", "Sub-Saharan Africa", "Bissau", "Low income", -1.48615753650665, 73.28310810810811, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("GNB", "Guinea-Bissau", "Sub-Saharan Africa", "Bissau", "Low income", -1.48615753650665, 73.28310810810811, "Developing", NULL);</t>
         </is>
       </c>
     </row>
@@ -1194,7 +1194,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("GNQ", "Equatorial Guinea", "Sub-Saharan Africa", "Malabo", "High income: nonOECD", -1.29638779163361, 58.26973262032086, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("GNQ", "Equatorial Guinea", "Sub-Saharan Africa", "Malabo", "High income: nonOECD", -1.29638779163361, 58.26973262032086, "Developing", NULL);</t>
         </is>
       </c>
     </row>
@@ -1204,7 +1204,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("GRC", "Greece", "Europe &amp; Central Asia", "Athens", "High income: OECD", 0.447398781776428, 81.99539953452289, "Developed", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("GRC", "Greece", "Europe &amp; Central Asia", "Athens", "High income: OECD", 0.447398781776428, 81.99539953452289, "Developed", "EU");</t>
         </is>
       </c>
     </row>
@@ -1214,7 +1214,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("GRD", "Grenada", "Latin America &amp; Caribbean", "Saint George's", "Upper middle income", 0.0384795591235161, 366.5, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("GRD", "Grenada", "Latin America &amp; Caribbean", "Saint George's", "Upper middle income", 0.0384795591235161, 366.5, "Developing", "CARICOM");</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("GRL", "Greenland", "Europe &amp; Central Asia", "Nuuk", "High income: nonOECD", NULL, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("GRL", "Greenland", "Europe &amp; Central Asia", "Nuuk", "High income: nonOECD", NULL, NULL, "Developing", NULL);</t>
         </is>
       </c>
     </row>
@@ -1234,7 +1234,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("GTM", "Guatemala", "Latin America &amp; Caribbean", "Guatemala City", "Lower middle income", -0.906891822814941, 159.66541620007465, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("GTM", "Guatemala", "Latin America &amp; Caribbean", "Guatemala City", "Lower middle income", -0.906891822814941, 159.66541620007465, "Developing", "CAIS");</t>
         </is>
       </c>
     </row>
@@ -1244,7 +1244,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("GUM", "Guam", "East Asia &amp; Pacific", "Agana", "High income: nonOECD", NULL, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("GUM", "Guam", "East Asia &amp; Pacific", "Agana", "High income: nonOECD", NULL, NULL, "Developing", NULL);</t>
         </is>
       </c>
     </row>
@@ -1254,7 +1254,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("GUY", "Guyana", "Latin America &amp; Caribbean", "Georgetown", "Lower middle income", -0.265898406505585, 4.087208534417069, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("GUY", "Guyana", "Latin America &amp; Caribbean", "Georgetown", "Lower middle income", -0.265898406505585, 4.087208534417069, "Developing", "USAN");</t>
         </is>
       </c>
     </row>
@@ -1264,7 +1264,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("HKG", "Hong Kong SAR, China", "East Asia &amp; Pacific", "NULL", "High income: nonOECD", NULL, NULL, "Developed", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("HKG", "Hong Kong SAR, China", "East Asia &amp; Pacific", NULL, "High income: nonOECD", NULL, NULL, "Developed", NULL);</t>
         </is>
       </c>
     </row>
@@ -1274,7 +1274,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("HND", "Honduras", "Latin America &amp; Caribbean", "Tegucigalpa", "Lower middle income", -0.866467356681824, 91.86115828045402, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("HND", "Honduras", "Latin America &amp; Caribbean", "Tegucigalpa", "Lower middle income", -0.866467356681824, 91.86115828045402, "Developing", "CAIS");</t>
         </is>
       </c>
     </row>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("HRV", "Croatia", "Europe &amp; Central Asia", "Zagreb", "High income: nonOECD", 0.581651031970978, 69.31736954967835, "Developed", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("HRV", "Croatia", "Europe &amp; Central Asia", "Zagreb", "High income: nonOECD", 0.581651031970978, 69.31736954967835, "Developed", NULL);</t>
         </is>
       </c>
     </row>
@@ -1294,7 +1294,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("HTI", "Haiti", "Latin America &amp; Caribbean", "Port-au-Prince", "Low income", -2.22696566581726, 415.36897677793905, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("HTI", "Haiti", "Latin America &amp; Caribbean", "Port-au-Prince", "Low income", -2.22696566581726, 415.36897677793905, "Developing", "CARICOM");</t>
         </is>
       </c>
     </row>
@@ -1304,7 +1304,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("HUN", "Hungary", "Europe &amp; Central Asia", "Budapest", "High income: OECD", 0.534344553947449, 106.39810431733508, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("HUN", "Hungary", "Europe &amp; Central Asia", "Budapest", "High income: OECD", 0.534344553947449, 106.39810431733508, "Developing", "EU");</t>
         </is>
       </c>
     </row>
@@ -1314,7 +1314,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("IDN", "Indonesia", "East Asia &amp; Pacific", "Jakarta", "Lower middle income", 0.436999291181564, 144.64738040148436, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("IDN", "Indonesia", "East Asia &amp; Pacific", "Jakarta", "Lower middle income", 0.436999291181564, 144.64738040148436, "Developing", "ASEAN");</t>
         </is>
       </c>
     </row>
@@ -1324,7 +1324,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("IMY", "Isle of Man", "Europe &amp; Central Asia", "Douglas", "High income: nonOECD", NULL, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("IMY", "Isle of Man", "Europe &amp; Central Asia", "Douglas", "High income: nonOECD", NULL, NULL, "Developing", NULL);</t>
         </is>
       </c>
     </row>
@@ -1334,7 +1334,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("IND", "India", "South Asia", "New Delhi", "Lower middle income", 0.370331406593323, 473.41873274160076, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("IND", "India", "South Asia", "New Delhi", "Lower middle income", 0.370331406593323, 473.41873274160076, "Developing", "SAARC");</t>
         </is>
       </c>
     </row>
@@ -1344,7 +1344,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("IRL", "Ireland", "Europe &amp; Central Asia", "Dublin", "High income: OECD", 1.54913818836212, 73.06087966323123, "Developed", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("IRL", "Ireland", "Europe &amp; Central Asia", "Dublin", "High income: OECD", 1.54913818836212, 73.06087966323123, "Developed", NULL);</t>
         </is>
       </c>
     </row>
@@ -1354,7 +1354,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("IRN", "Iran, Islamic Rep.", "Middle East &amp; North Africa", "Tehran", "Upper middle income", -0.882116675376892, 54.190096764252694, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("IRN", "Iran, Islamic Rep.", "Middle East &amp; North Africa", "Tehran", "Upper middle income", -0.882116675376892, 54.190096764252694, "Developing", NULL);</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("IRQ", "Iraq", "Middle East &amp; North Africa", "Baghdad", "Lower middle income", -1.30191540718079, 100.27824051892529, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("IRQ", "Iraq", "Middle East &amp; North Africa", "Baghdad", "Lower middle income", -1.30191540718079, 100.27824051892529, "Developing", NULL);</t>
         </is>
       </c>
     </row>
@@ -1374,7 +1374,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("ISL", "Iceland", "Europe &amp; Central Asia", "Reykjavik", "High income: OECD", 1.56327533721924, 3.694535356540712, "Developed", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("ISL", "Iceland", "Europe &amp; Central Asia", "Reykjavik", "High income: OECD", 1.56327533721924, 3.694535356540712, "Developed", "EFTA");</t>
         </is>
       </c>
     </row>
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("ISR", "Israel", "Middle East &amp; North Africa", "NULL", "High income: OECD", 1.23656439781189, 433.0591497227357, "Developed", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("ISR", "Israel", "Middle East &amp; North Africa", NULL, "High income: OECD", 1.23656439781189, 433.0591497227357, "Developed", NULL);</t>
         </is>
       </c>
     </row>
@@ -1394,7 +1394,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("ITA", "Italy", "Europe &amp; Central Asia", "Rome", "High income: OECD", 0.449057072401047, 199.9654162594643, "Developed", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("ITA", "Italy", "Europe &amp; Central Asia", "Rome", "High income: OECD", 0.449057072401047, 199.9654162594643, "Developed", "EU");</t>
         </is>
       </c>
     </row>
@@ -1404,7 +1404,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("JAM", "Jamaica", "Latin America &amp; Caribbean", "Kingston", "Upper middle income", 0.604482173919678, 261.0983379501385, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("JAM", "Jamaica", "Latin America &amp; Caribbean", "Kingston", "Upper middle income", 0.604482173919678, 261.0983379501385, "Developing", "CARICOM");</t>
         </is>
       </c>
     </row>
@@ -1414,7 +1414,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("JOR", "Jordan", "Middle East &amp; North Africa", "Amman", "Upper middle income", 0.194713801145554, 125.55215442484852, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("JOR", "Jordan", "Middle East &amp; North Africa", "Amman", "Upper middle income", 0.194713801145554, 125.55215442484852, "Developing", NULL);</t>
         </is>
       </c>
     </row>
@@ -1424,7 +1424,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("JPN", "Japan", "East Asia &amp; Pacific", "Tokyo", "High income: OECD", 1.61974680423737, 344.8054677640604, "Developed", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("JPN", "Japan", "East Asia &amp; Pacific", "Tokyo", "High income: OECD", 1.61974680423737, 344.8054677640604, "Developed", NULL);</t>
         </is>
       </c>
     </row>
@@ -1434,7 +1434,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("KAZ", "Kazakhstan", "Europe &amp; Central Asia", "Astana", "Upper middle income", 0.143430486321449, 7.038184983516687, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("KAZ", "Kazakhstan", "Europe &amp; Central Asia", "Astana", "Upper middle income", 0.143430486321449, 7.038184983516687, "Developing", NULL);</t>
         </is>
       </c>
     </row>
@@ -1444,7 +1444,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("KEN", "Kenya", "Sub-Saharan Africa", "Nairobi", "Low income", -0.300569444894791, 93.13282144990687, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("KEN", "Kenya", "Sub-Saharan Africa", "Nairobi", "Low income", -0.300569444894791, 93.13282144990687, "Developing", NULL);</t>
         </is>
       </c>
     </row>
@@ -1454,7 +1454,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("KGZ", "Kyrgyz Republic", "Europe &amp; Central Asia", "Bishkek", "Low income", -0.889000654220581, 35.31491136600626, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("KGZ", "Kyrgyz Republic", "Europe &amp; Central Asia", "Bishkek", "Low income", -0.889000654220581, 35.31491136600626, "Developing", NULL);</t>
         </is>
       </c>
     </row>
@@ -1464,7 +1464,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("KHM", "Cambodia", "East Asia &amp; Pacific", "Phnom Penh", "Low income", -0.351662397384644, 93.97814978472694, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("KHM", "Cambodia", "East Asia &amp; Pacific", "Phnom Penh", "Low income", -0.351662397384644, 93.97814978472694, "Developing", "ASEAN");</t>
         </is>
       </c>
     </row>
@@ -1474,7 +1474,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("KIR", "Kiribati", "East Asia &amp; Pacific", "Tarawa", "Lower middle income", 0.167575597763062, 159.1037037037037, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("KIR", "Kiribati", "East Asia &amp; Pacific", "Tarawa", "Lower middle income", 0.167575597763062, 159.1037037037037, "Developing", NULL);</t>
         </is>
       </c>
     </row>
@@ -1484,7 +1484,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("KNA", "St. Kitts and Nevis", "Latin America &amp; Caribbean", "Basseterre", "Upper middle income", 0.392122596502304, 183.1, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("KNA", "St. Kitts and Nevis", "Latin America &amp; Caribbean", "Basseterre", "Upper middle income", 0.392122596502304, 183.1, "Developing", NULL);</t>
         </is>
       </c>
     </row>
@@ -1494,7 +1494,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("KOR", "Korea, Rep.", "East Asia &amp; Pacific", "Seoul", "High income: OECD", 1.34957349300385, 530.1729098360656, "Developed", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("KOR", "Korea, Rep.", "East Asia &amp; Pacific", "Seoul", "High income: OECD", 1.34957349300385, 530.1729098360656, "Developed", NULL);</t>
         </is>
       </c>
     </row>
@@ -1504,7 +1504,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("KSV", "Kosovo", "Europe &amp; Central Asia", "Pristina", "Lower middle income", NULL, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("KSV", "Kosovo", "Europe &amp; Central Asia", "Pristina", "Lower middle income", NULL, NULL, "Developing", "CEFTA");</t>
         </is>
       </c>
     </row>
@@ -1514,7 +1514,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("KWT", "Kuwait", "Middle East &amp; North Africa", "Kuwait City", "High income: nonOECD", 0.112373597919941, 238.50246913580247, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("KWT", "Kuwait", "Middle East &amp; North Africa", "Kuwait City", "High income: nonOECD", 0.112373597919941, 238.50246913580247, "Developing", "GCC");</t>
         </is>
       </c>
     </row>
@@ -1524,7 +1524,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("LAO", "Lao PDR", "East Asia &amp; Pacific", "Vientiane", "Lower middle income", -0.595122039318085, 32.1709575389948, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("LAO", "Lao PDR", "East Asia &amp; Pacific", "Vientiane", "Lower middle income", -0.595122039318085, 32.1709575389948, "Developing", NULL);</t>
         </is>
       </c>
     </row>
@@ -1534,7 +1534,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("LBN", "Lebanon", "Middle East &amp; North Africa", "Beirut", "Upper middle income", -1.45865571498871, 546.689247311828, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("LBN", "Lebanon", "Middle East &amp; North Africa", "Beirut", "Upper middle income", -1.45865571498871, 546.689247311828, "Developing", NULL);</t>
         </is>
       </c>
     </row>
@@ -1544,7 +1544,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("LBR", "Liberia", "Sub-Saharan Africa", "Monrovia", "Low income", -1.43825364112854, 53.91835548172757, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("LBR", "Liberia", "Sub-Saharan Africa", "Monrovia", "Low income", -1.43825364112854, 53.91835548172757, "Developing", NULL);</t>
         </is>
       </c>
     </row>
@@ -1554,7 +1554,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("LBY", "Libya", "Middle East &amp; North Africa", "Tripoli", "Upper middle income", -1.75491416454315, 3.8278623958534617, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("LBY", "Libya", "Middle East &amp; North Africa", "Tripoli", "Upper middle income", -1.75491416454315, 3.8278623958534617, "Developing", NULL);</t>
         </is>
       </c>
     </row>
@@ -1564,7 +1564,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("LCA", "St. Lucia", "Latin America &amp; Caribbean", "Castries", "Upper middle income", -0.0970938131213188, 294.5098360655738, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("LCA", "St. Lucia", "Latin America &amp; Caribbean", "Castries", "Upper middle income", -0.0970938131213188, 294.5098360655738, "Developing", NULL);</t>
         </is>
       </c>
     </row>
@@ -1574,7 +1574,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("LIE", "Liechtenstein", "Europe &amp; Central Asia", "Vaduz", "High income: nonOECD", 1.48783588409424, 243.99375, "Developed", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("LIE", "Liechtenstein", "Europe &amp; Central Asia", "Vaduz", "High income: nonOECD", 1.48783588409424, 243.99375, "Developed", "EFTA");</t>
         </is>
       </c>
     </row>
@@ -1584,7 +1584,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("LKA", "Sri Lanka", "South Asia", "Colombo", "Lower middle income", -0.391204476356506, 358.16359521500164, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("LKA", "Sri Lanka", "South Asia", "Colombo", "Lower middle income", -0.391204476356506, 358.16359521500164, "Developing", "SAARC");</t>
         </is>
       </c>
     </row>
@@ -1594,7 +1594,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("LSO", "Lesotho", "Sub-Saharan Africa", "Maseru", "Lower middle income", -0.890573918819427, 75.14670619235837, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("LSO", "Lesotho", "Sub-Saharan Africa", "Maseru", "Lower middle income", -0.890573918819427, 75.14670619235837, "Developing", NULL);</t>
         </is>
       </c>
     </row>
@@ -1604,7 +1604,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("LTU", "Lithuania", "Europe &amp; Central Asia", "Vilnius", "Upper middle income", 0.994318783283234, 44.734690943938666, "Developed", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("LTU", "Lithuania", "Europe &amp; Central Asia", "Vilnius", "Upper middle income", 0.994318783283234, 44.734690943938666, "Developed", "EU");</t>
         </is>
       </c>
     </row>
@@ -1614,7 +1614,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("LUX", "Luxembourg", "Europe &amp; Central Asia", "Luxembourg", "High income: OECD", 1.77271509170532, 248.62068161866955, "Developed", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("LUX", "Luxembourg", "Europe &amp; Central Asia", "Luxembourg", "High income: OECD", 1.77271509170532, 248.62068161866955, "Developed", "EU");</t>
         </is>
       </c>
     </row>
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("LVA", "Latvia", "Europe &amp; Central Asia", "Riga", "Upper middle income", 0.691895127296448, 30.282661095934436, "Developed", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("LVA", "Latvia", "Europe &amp; Central Asia", "Riga", "Upper middle income", 0.691895127296448, 30.282661095934436, "Developed", "EU");</t>
         </is>
       </c>
     </row>
@@ -1634,7 +1634,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("MAC", "Macao SAR, China", "East Asia &amp; Pacific", "NULL", "High income: nonOECD", NULL, NULL, "Developed", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("MAC", "Macao SAR, China", "East Asia &amp; Pacific", NULL, "High income: nonOECD", NULL, NULL, "Developed", NULL);</t>
         </is>
       </c>
     </row>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("MAF", "St. Martin (French part)", "Latin America &amp; Caribbean", "Marigot", "High income: nonOECD", NULL, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("MAF", "St. Martin (French part)", "Latin America &amp; Caribbean", "Marigot", "High income: nonOECD", NULL, NULL, "Developing", NULL);</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1654,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("MAR", "Morocco", "Middle East &amp; North Africa", "Rabat", "Lower middle income", -0.131649643182755, 83.0754738964822, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("MAR", "Morocco", "Middle East &amp; North Africa", "Rabat", "Lower middle income", -0.131649643182755, 83.0754738964822, "Developing", NULL);</t>
         </is>
       </c>
     </row>
@@ -1664,7 +1664,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("MCO", "Monaco", "Europe &amp; Central Asia", "Monaco", "High income: nonOECD", 2.04689598083496, 17603.646833013434, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("MCO", "Monaco", "Europe &amp; Central Asia", "Monaco", "High income: nonOECD", 2.04689598083496, 17603.646833013434, "Developing", NULL);</t>
         </is>
       </c>
     </row>
@@ -1674,7 +1674,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("MDA", "Moldova", "Europe &amp; Central Asia", "Chisinau", "Lower middle income", -0.307013601064682, 90.110355122019, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("MDA", "Moldova", "Europe &amp; Central Asia", "Chisinau", "Lower middle income", -0.307013601064682, 90.110355122019, "Developing", "CEFTA");</t>
         </is>
       </c>
     </row>
@@ -1684,7 +1684,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("MDG", "Madagascar", "Sub-Saharan Africa", "AntaNULLarivo", "Low income", -0.987728238105774, 49.700331729116535, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("MDG", "Madagascar", "Sub-Saharan Africa", "AntaNULLarivo", "Low income", -0.987728238105774, 49.700331729116535, "Developing", NULL);</t>
         </is>
       </c>
     </row>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("MDV", "Maldives", "South Asia", "Male", "Upper middle income", -0.134175449609756, 1738.19, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("MDV", "Maldives", "South Asia", "Male", "Upper middle income", -0.134175449609756, 1738.19, "Developing", "SAARC");</t>
         </is>
       </c>
     </row>
@@ -1704,7 +1704,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("MEX", "Mexico", "Latin America &amp; Caribbean", "Mexico City", "Upper middle income", -0.280898958444595, 65.17921654363538, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("MEX", "Mexico", "Latin America &amp; Caribbean", "Mexico City", "Upper middle income", -0.280898958444595, 65.17921654363538, "Developing", "USMCA");</t>
         </is>
       </c>
     </row>
@@ -1714,7 +1714,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("MHL", "Marshall Islands", "East Asia &amp; Pacific", "Majuro", "Lower middle income", 0.230687335133553, 233.61111111111111, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("MHL", "Marshall Islands", "East Asia &amp; Pacific", "Majuro", "Lower middle income", 0.230687335133553, 233.61111111111111, "Developing", NULL);</t>
         </is>
       </c>
     </row>
@@ -1724,7 +1724,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("MKD", "Macedonia, FYR", "Europe &amp; Central Asia", "Skopje", "Upper middle income", -0.0810714960098267, 81.88310864393338, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("MKD", "Macedonia, FYR", "Europe &amp; Central Asia", "Skopje", "Upper middle income", -0.0810714960098267, 81.88310864393338, "Developing", NULL);</t>
         </is>
       </c>
     </row>
@@ -1734,7 +1734,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("MLI", "Mali", "Sub-Saharan Africa", "Bamako", "Low income", -1.19682347774506, 17.952108278218965, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("MLI", "Mali", "Sub-Saharan Africa", "Bamako", "Low income", -1.19682347774506, 17.952108278218965, "Developing", NULL);</t>
         </is>
       </c>
     </row>
@@ -1744,7 +1744,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("MLT", "Malta", "Middle East &amp; North Africa", "Valletta", "High income: nonOECD", 0.80439019203186, 1620.425, "Developed", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("MLT", "Malta", "Middle East &amp; North Africa", "Valletta", "High income: nonOECD", 0.80439019203186, 1620.425, "Developed", "EU");</t>
         </is>
       </c>
     </row>
@@ -1754,7 +1754,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("MMR", "Myanmar", "East Asia &amp; Pacific", "Naypyidaw", "Low income", -1.68404102325439, 82.42769546631528, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("MMR", "Myanmar", "East Asia &amp; Pacific", "Naypyidaw", "Low income", -1.68404102325439, 82.42769546631528, "Developing", "ASEAN");</t>
         </is>
       </c>
     </row>
@@ -1764,7 +1764,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("MNE", "Montenegro", "Europe &amp; Central Asia", "Podgorica", "Upper middle income", -0.0270149894058704, 46.03799256505576, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("MNE", "Montenegro", "Europe &amp; Central Asia", "Podgorica", "Upper middle income", -0.0270149894058704, 46.03799256505576, "Developing", "CEFTA");</t>
         </is>
       </c>
     </row>
@@ -1774,7 +1774,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("MNG", "Mongolia", "East Asia &amp; Pacific", "Ulaanbaatar", "Lower middle income", -0.424908697605133, 2.149449087548242, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("MNG", "Mongolia", "East Asia &amp; Pacific", "Ulaanbaatar", "Lower middle income", -0.424908697605133, 2.149449087548242, "Developing", NULL);</t>
         </is>
       </c>
     </row>
@@ -1784,7 +1784,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("MNP", "Northern Mariana Islands", "East Asia &amp; Pacific", "Saipan", "High income: nonOECD", NULL, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("MNP", "Northern Mariana Islands", "East Asia &amp; Pacific", "Saipan", "High income: nonOECD", NULL, NULL, "Developing", NULL);</t>
         </is>
       </c>
     </row>
@@ -1794,7 +1794,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("MOZ", "Mozambique", "Sub-Saharan Africa", "Maputo", "Low income", -0.714270293712616, 40.790803428367965, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("MOZ", "Mozambique", "Sub-Saharan Africa", "Maputo", "Low income", -0.714270293712616, 40.790803428367965, "Developing", NULL);</t>
         </is>
       </c>
     </row>
@@ -1804,7 +1804,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("MRT", "Mauritania", "Sub-Saharan Africa", "Nouakchott", "Lower middle income", -0.701024174690247, 4.477514310662657, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("MRT", "Mauritania", "Sub-Saharan Africa", "Nouakchott", "Lower middle income", -0.701024174690247, 4.477514310662657, "Developing", NULL);</t>
         </is>
       </c>
     </row>
@@ -1814,7 +1814,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("MUS", "Mauritius", "Sub-Saharan Africa", "Port Louis", "Upper middle income", 0.750284731388092, 634.1181772658988, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("MUS", "Mauritius", "Sub-Saharan Africa", "Port Louis", "Upper middle income", 0.750284731388092, 634.1181772658988, "Developing", NULL);</t>
         </is>
       </c>
     </row>
@@ -1824,7 +1824,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("MWI", "Malawi", "Sub-Saharan Africa", "Lilongwe", "Low income", -0.840930998325348, 210.96459482392873, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("MWI", "Malawi", "Sub-Saharan Africa", "Lilongwe", "Low income", -0.840930998325348, 210.96459482392873, "Developing", NULL);</t>
         </is>
       </c>
     </row>
@@ -1834,7 +1834,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("MYS", "Malaysia", "East Asia &amp; Pacific", "Kuala Lumpur", "Upper middle income", 0.993270576000214, 102.18802008826663, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("MYS", "Malaysia", "East Asia &amp; Pacific", "Kuala Lumpur", "Upper middle income", 0.993270576000214, 102.18802008826663, "Developing", "ASEAN");</t>
         </is>
       </c>
     </row>
@@ -1844,7 +1844,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("MYT", "Mayotte", "Sub-Saharan Africa", "Mamoudzou", "Upper middle income", NULL, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("MYT", "Mayotte", "Sub-Saharan Africa", "Mamoudzou", "Upper middle income", NULL, NULL, "Developing", NULL);</t>
         </is>
       </c>
     </row>
@@ -1854,7 +1854,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("NAM", "Namibia", "Sub-Saharan Africa", "Windhoek", "Upper middle income", 0.0394995212554932, 3.0732196431391126, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("NAM", "Namibia", "Sub-Saharan Africa", "Windhoek", "Upper middle income", 0.0394995212554932, 3.0732196431391126, "Developing", NULL);</t>
         </is>
       </c>
     </row>
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("NCL", "New Caledonia", "East Asia &amp; Pacific", "Noum'ea", "High income: nonOECD", NULL, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("NCL", "New Caledonia", "East Asia &amp; Pacific", "Noum'ea", "High income: nonOECD", NULL, NULL, "Developing", NULL);</t>
         </is>
       </c>
     </row>
@@ -1874,7 +1874,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("NER", "Niger", "Sub-Saharan Africa", "Niamey", "Low income", -0.639215767383575, 19.93583484645141, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("NER", "Niger", "Sub-Saharan Africa", "Niamey", "Low income", -0.639215767383575, 19.93583484645141, "Developing", NULL);</t>
         </is>
       </c>
     </row>
@@ -1884,7 +1884,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("NGA", "Nigeria", "Sub-Saharan Africa", "Abuja", "Lower middle income", -1.03512346744537, 234.30868715482504, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("NGA", "Nigeria", "Sub-Saharan Africa", "Abuja", "Lower middle income", -1.03512346744537, 234.30868715482504, "Developing", NULL);</t>
         </is>
       </c>
     </row>
@@ -1894,7 +1894,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("NIC", "Nicaragua", "Latin America &amp; Caribbean", "Managua", "Lower middle income", -1.03581631183624, 56.92654146584677, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("NIC", "Nicaragua", "Latin America &amp; Caribbean", "Managua", "Lower middle income", -1.03581631183624, 56.92654146584677, "Developing", "CAIS");</t>
         </is>
       </c>
     </row>
@@ -1904,7 +1904,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("NIU", "Niue", "East Asia &amp; Pacific", "Alofi", "Upper middle income", NULL, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("NIU", "Niue", "East Asia &amp; Pacific", "Alofi", "Upper middle income", NULL, NULL, "Developing", NULL);</t>
         </is>
       </c>
     </row>
@@ -1914,7 +1914,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("NLD", "Netherlands", "Europe &amp; Central Asia", "Amsterdam", "High income: OECD", 1.57946932315826, 520.7319275319276, "Developed", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("NLD", "Netherlands", "Europe &amp; Central Asia", "Amsterdam", "High income: OECD", 1.57946932315826, 520.7319275319276, "Developed", "EU");</t>
         </is>
       </c>
     </row>
@@ -1924,7 +1924,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("NOR", "Norway", "Europe &amp; Central Asia", "Oslo", "High income: OECD", 1.94218063354492, 14.847009086666484, "Developed", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("NOR", "Norway", "Europe &amp; Central Asia", "Oslo", "High income: OECD", 1.94218063354492, 14.847009086666484, "Developed", "EFTA");</t>
         </is>
       </c>
     </row>
@@ -1934,7 +1934,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("NPL", "Nepal", "South Asia", "Kathmandu", "Low income", -0.917344748973846, 209.52207185211023, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("NPL", "Nepal", "South Asia", "Kathmandu", "Low income", -0.917344748973846, 209.52207185211023, "Developing", "SAARC");</t>
         </is>
       </c>
     </row>
@@ -1944,7 +1944,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("NRU", "Nauru", "East Asia &amp; Pacific", "NULL", "Upper middle income", 0.199985399842262, 625.55, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("NRU", "Nauru", "East Asia &amp; Pacific", NULL, "Upper middle income", 0.199985399842262, 625.55, "Developing", NULL);</t>
         </is>
       </c>
     </row>
@@ -1954,7 +1954,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("NZL", "New Zealand", "East Asia &amp; Pacific", "Wellington", "High income: OECD", 1.34053194522858, 19.41209980631195, "Developed", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("NZL", "New Zealand", "East Asia &amp; Pacific", "Wellington", "High income: OECD", 1.34053194522858, 19.41209980631195, "Developed", NULL);</t>
         </is>
       </c>
     </row>
@@ -1964,7 +1964,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("OMN", "Oman", "Middle East &amp; North Africa", "Muscat", "High income: nonOECD", 0.0220412891358137, 14.605722132471728, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("OMN", "Oman", "Middle East &amp; North Africa", "Muscat", "High income: nonOECD", 0.0220412891358137, 14.605722132471728, "Developing", "GCC");</t>
         </is>
       </c>
     </row>
@@ -1974,7 +1974,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("PAK", "Pakistan", "South Asia", "Islamabad", "Lower middle income", -0.623640716075897, 300.17916796388545, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("PAK", "Pakistan", "South Asia", "Islamabad", "Lower middle income", -0.623640716075897, 300.17916796388545, "Developing", "SAARC");</t>
         </is>
       </c>
     </row>
@@ -1984,7 +1984,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("PAN", "Panama", "Latin America &amp; Caribbean", "Panama City", "Upper middle income", -0.127450808882713, 58.65822324076571, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("PAN", "Panama", "Latin America &amp; Caribbean", "Panama City", "Upper middle income", -0.127450808882713, 58.65822324076571, "Developing", "CAIS");</t>
         </is>
       </c>
     </row>
@@ -1994,7 +1994,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("PER", "Peru", "Latin America &amp; Caribbean", "Lima", "Upper middle income", -0.39776611328125, 26.34021171875, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("PER", "Peru", "Latin America &amp; Caribbean", "Lima", "Upper middle income", -0.39776611328125, 26.34021171875, "Developing", "USAN");</t>
         </is>
       </c>
     </row>
@@ -2004,7 +2004,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("PHL", "Philippines", "East Asia &amp; Pacific", "Manila", "Lower middle income", 0.0647772029042244, 381.9308716504008, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("PHL", "Philippines", "East Asia &amp; Pacific", "Manila", "Lower middle income", 0.0647772029042244, 381.9308716504008, "Developing", "ASEAN");</t>
         </is>
       </c>
     </row>
@@ -2014,7 +2014,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("PLW", "Palau", "East Asia &amp; Pacific", "Koror", "Upper middle income", 0.449828535318375, 39.18260869565217, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("PLW", "Palau", "East Asia &amp; Pacific", "Koror", "Upper middle income", 0.449828535318375, 39.18260869565217, "Developing", NULL);</t>
         </is>
       </c>
     </row>
@@ -2024,7 +2024,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("PNG", "Papua New Guinea", "East Asia &amp; Pacific", "Port Moresby", "Lower middle income", -0.807290256023407, 21.970227001722385, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("PNG", "Papua New Guinea", "East Asia &amp; Pacific", "Port Moresby", "Lower middle income", -0.807290256023407, 21.970227001722385, "Developing", NULL);</t>
         </is>
       </c>
     </row>
@@ -2034,7 +2034,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("POL", "Poland", "Europe &amp; Central Asia", "Warsaw", "High income: OECD", 0.25948902964592, 123.31631492976152, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("POL", "Poland", "Europe &amp; Central Asia", "Warsaw", "High income: OECD", 0.25948902964592, 123.31631492976152, "Developing", "EU");</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("PRI", "Puerto Rico", "Latin America &amp; Caribbean", "San Juan", "High income: nonOECD", NULL, NULL, "Developed", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("PRI", "Puerto Rico", "Latin America &amp; Caribbean", "San Juan", "High income: nonOECD", NULL, NULL, "Developed", NULL);</t>
         </is>
       </c>
     </row>
@@ -2054,7 +2054,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("PRK", "Korea, Dem. Rep.", "East Asia &amp; Pacific", "Pyongyang", "Low income", -1.46298551559448, 215.69561498214435, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("PRK", "Korea, Dem. Rep.", "East Asia &amp; Pacific", "Pyongyang", "Low income", -1.46298551559448, 215.69561498214435, "Developing", NULL);</t>
         </is>
       </c>
     </row>
@@ -2064,7 +2064,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("PRT", "Portugal", "Europe &amp; Central Asia", "Lisbon", "High income: OECD", 1.00159108638763, 113.11351052774066, "Developed", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("PRT", "Portugal", "Europe &amp; Central Asia", "Lisbon", "High income: OECD", 1.00159108638763, 113.11351052774066, "Developed", "EU");</t>
         </is>
       </c>
     </row>
@@ -2074,7 +2074,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("PRY", "Paraguay", "Latin America &amp; Caribbean", "Asuncion", "Lower middle income", -0.613315761089325, 16.8733929020891, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("PRY", "Paraguay", "Latin America &amp; Caribbean", "Asuncion", "Lower middle income", -0.613315761089325, 16.8733929020891, "Developing", "USAN");</t>
         </is>
       </c>
     </row>
@@ -2084,7 +2084,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("PYF", "French Polynesia", "East Asia &amp; Pacific", "Papeete", "High income: nonOECD", NULL, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("PYF", "French Polynesia", "East Asia &amp; Pacific", "Papeete", "High income: nonOECD", NULL, NULL, "Developing", NULL);</t>
         </is>
       </c>
     </row>
@@ -2094,7 +2094,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("QAT", "Qatar", "Middle East &amp; North Africa", "Doha", "High income: nonOECD", 1.13682854175568, 233.96301131418625, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("QAT", "Qatar", "Middle East &amp; North Africa", "Doha", "High income: nonOECD", 1.13682854175568, 233.96301131418625, "Developing", "GCC");</t>
         </is>
       </c>
     </row>
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("ROM", "Romania", "Europe &amp; Central Asia", "Bucharest", "Upper middle income", NULL, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("ROM", "Romania", "Europe &amp; Central Asia", "Bucharest", "Upper middle income", NULL, NULL, "Developing", "EU");</t>
         </is>
       </c>
     </row>
@@ -2114,7 +2114,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("RUS", "Russian Federation", "Europe &amp; Central Asia", "Moscow", "Upper middle income", -0.695411026477814, 8.80085645181283, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("RUS", "Russian Federation", "Europe &amp; Central Asia", "Moscow", "Upper middle income", -0.695411026477814, 8.80085645181283, "Developing", NULL);</t>
         </is>
       </c>
     </row>
@@ -2124,7 +2124,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("RWA", "Rwanda", "Sub-Saharan Africa", "Kigali", "Low income", 0.232485979795456, 545.6784758816376, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("RWA", "Rwanda", "Sub-Saharan Africa", "Kigali", "Low income", 0.232485979795456, 545.6784758816376, "Developing", NULL);</t>
         </is>
       </c>
     </row>
@@ -2134,7 +2134,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("SAU", "Saudi Arabia", "Middle East &amp; North Africa", "Riyadh", "High income: nonOECD", 0.583050787448883, 16.723525717661616, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("SAU", "Saudi Arabia", "Middle East &amp; North Africa", "Riyadh", "High income: nonOECD", 0.583050787448883, 16.723525717661616, "Developing", "GCC");</t>
         </is>
       </c>
     </row>
@@ -2144,7 +2144,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("SDN", "Sudan", "Sub-Saharan Africa", "Khartoum", "Lower middle income", -1.70530915260315, 24.441756959314777, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("SDN", "Sudan", "Sub-Saharan Africa", "Khartoum", "Lower middle income", -1.70530915260315, 24.441756959314777, "Developing", NULL);</t>
         </is>
       </c>
     </row>
@@ -2154,7 +2154,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("SEN", "Senegal", "Sub-Saharan Africa", "Dakar", "Lower middle income", -0.00124927773140371, 87.65761180075832, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("SEN", "Senegal", "Sub-Saharan Africa", "Dakar", "Lower middle income", -0.00124927773140371, 87.65761180075832, "Developing", NULL);</t>
         </is>
       </c>
     </row>
@@ -2164,7 +2164,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("SGP", "Singapore", "East Asia &amp; Pacific", "Singapore", "High income: nonOECD", 2.14482593536377, 7595.49582172702, "Developed", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("SGP", "Singapore", "East Asia &amp; Pacific", "Singapore", "High income: nonOECD", 2.14482593536377, 7595.49582172702, "Developed", "ASEAN");</t>
         </is>
       </c>
     </row>
@@ -2174,7 +2174,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("SLB", "Solomon Islands", "East Asia &amp; Pacific", "Honiara", "Lower middle income", -0.674787521362305, 25.289424794569488, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("SLB", "Solomon Islands", "East Asia &amp; Pacific", "Honiara", "Lower middle income", -0.674787521362305, 25.289424794569488, "Developing", NULL);</t>
         </is>
       </c>
     </row>
@@ -2184,7 +2184,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("SLE", "Sierra Leone", "Sub-Saharan Africa", "Freetown", "Low income", -1.16025280952454, 116.66169298974785, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("SLE", "Sierra Leone", "Sub-Saharan Africa", "Freetown", "Low income", -1.16025280952454, 116.66169298974785, "Developing", NULL);</t>
         </is>
       </c>
     </row>
@@ -2194,7 +2194,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("SLV", "El Salvador", "Latin America &amp; Caribbean", "San Salvador", "Lower middle income", -0.320332825183868, 304.7377895752896, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("SLV", "El Salvador", "Latin America &amp; Caribbean", "San Salvador", "Lower middle income", -0.320332825183868, 304.7377895752896, "Developing", "CAIS");</t>
         </is>
       </c>
     </row>
@@ -2204,7 +2204,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("SMR", "San Marino", "Europe &amp; Central Asia", "San Marino", "High income: nonOECD", 1.77110064029694, 562.4166666666666, "Developed", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("SMR", "San Marino", "Europe &amp; Central Asia", "San Marino", "High income: nonOECD", 1.77110064029694, 562.4166666666666, "Developed", NULL);</t>
         </is>
       </c>
     </row>
@@ -2214,7 +2214,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("SOM", "Somalia", "Sub-Saharan Africa", "Mogadishu", "Low income", -2.02636790275574, 27.203081263748526, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("SOM", "Somalia", "Sub-Saharan Africa", "Mogadishu", "Low income", -2.02636790275574, 27.203081263748526, "Developing", NULL);</t>
         </is>
       </c>
     </row>
@@ -2224,7 +2224,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("SRB", "Serbia", "Europe &amp; Central Asia", "Belgrade", "Upper middle income", 0.0656684786081314, 81.27394458318469, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("SRB", "Serbia", "Europe &amp; Central Asia", "Belgrade", "Upper middle income", 0.0656684786081314, 81.27394458318469, "Developing", "CEFTA");</t>
         </is>
       </c>
     </row>
@@ -2234,7 +2234,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("STP", "Sao Tome and Principe", "Sub-Saharan Africa", "Sao Tome", "Lower middle income", -0.843731462955475, 232.403125, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("STP", "Sao Tome and Principe", "Sub-Saharan Africa", "Sao Tome", "Lower middle income", -0.843731462955475, 232.403125, "Developing", NULL);</t>
         </is>
       </c>
     </row>
@@ -2244,7 +2244,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("SUR", "Suriname", "Latin America &amp; Caribbean", "Paramaribo", "Upper middle income", -0.943955838680267, 3.9293910256410256, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("SUR", "Suriname", "Latin America &amp; Caribbean", "Paramaribo", "Upper middle income", -0.943955838680267, 3.9293910256410256, "Developing", "USAN");</t>
         </is>
       </c>
     </row>
@@ -2254,7 +2254,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("SVK", "Slovak Republic", "Europe &amp; Central Asia", "Bratislava", "High income: OECD", 0.378621488809586, 113.29548668885191, "Developed", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("SVK", "Slovak Republic", "Europe &amp; Central Asia", "Bratislava", "High income: OECD", 0.378621488809586, 113.29548668885191, "Developed", NULL);</t>
         </is>
       </c>
     </row>
@@ -2264,7 +2264,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("SVN", "Slovenia", "Europe &amp; Central Asia", "Ljubljana", "High income: OECD", 1.0690666437149, 104.68996444250213, "Developed", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("SVN", "Slovenia", "Europe &amp; Central Asia", "Ljubljana", "High income: OECD", 1.0690666437149, 104.68996444250213, "Developed", "EU");</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("SWE", "Sweden", "Europe &amp; Central Asia", "Stockholm", "High income: OECD", 1.57297706604004, 25.57385697443113, "Developed", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("SWE", "Sweden", "Europe &amp; Central Asia", "Stockholm", "High income: OECD", 1.57297706604004, 25.57385697443113, "Developed", "EU");</t>
         </is>
       </c>
     </row>
@@ -2284,7 +2284,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("SWZ", "Swaziland", "Sub-Saharan Africa", "Mbabane", "Lower middle income", -0.686120450496674, 69.31808139534884, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("SWZ", "Swaziland", "Sub-Saharan Africa", "Mbabane", "Lower middle income", -0.686120450496674, 69.31808139534884, "Developing", NULL);</t>
         </is>
       </c>
     </row>
@@ -2294,7 +2294,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("SXM", "Sint Maarten (Dutch part)", "Latin America &amp; Caribbean", "Philipsburg", "High income: nonOECD", NULL, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("SXM", "Sint Maarten (Dutch part)", "Latin America &amp; Caribbean", "Philipsburg", "High income: nonOECD", NULL, NULL, "Developing", NULL);</t>
         </is>
       </c>
     </row>
@@ -2304,7 +2304,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("SYC", "Seychelles", "Sub-Saharan Africa", "Victoria", "Upper middle income", 0.662167310714722, 215.77826086956523, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("SYC", "Seychelles", "Sub-Saharan Africa", "Victoria", "Upper middle income", 0.662167310714722, 215.77826086956523, "Developing", NULL);</t>
         </is>
       </c>
     </row>
@@ -2314,7 +2314,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("SYR", "Syrian Arab Republic", "Middle East &amp; North Africa", "Damascus", "Lower middle income", -1.75204491615295, 116.12681479061156, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("SYR", "Syrian Arab Republic", "Middle East &amp; North Africa", "Damascus", "Lower middle income", -1.75204491615295, 116.12681479061156, "Developing", NULL);</t>
         </is>
       </c>
     </row>
@@ -2324,7 +2324,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("TCA", "Turks and Caicos Islands", "Latin America &amp; Caribbean", "Grand Turk", "High income: nonOECD", NULL, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("TCA", "Turks and Caicos Islands", "Latin America &amp; Caribbean", "Grand Turk", "High income: nonOECD", NULL, NULL, "Developing", NULL);</t>
         </is>
       </c>
     </row>
@@ -2334,7 +2334,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("TCD", "Chad", "Sub-Saharan Africa", "N'Djamena", "Low income", -1.42290568351746, 13.643376747141042, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("TCD", "Chad", "Sub-Saharan Africa", "N'Djamena", "Low income", -1.42290568351746, 13.643376747141042, "Developing", NULL);</t>
         </is>
       </c>
     </row>
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("TGO", "Togo", "Sub-Saharan Africa", "Lome", "Low income", -0.64258873462677, 158.94151498437213, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("TGO", "Togo", "Sub-Saharan Africa", "Lome", "Low income", -0.64258873462677, 158.94151498437213, "Developing", NULL);</t>
         </is>
       </c>
     </row>
@@ -2354,7 +2354,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("THA", "Thailand", "East Asia &amp; Pacific", "Bangkok", "Upper middle income", 0.128285065293312, 140.14974456340894, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("THA", "Thailand", "East Asia &amp; Pacific", "Bangkok", "Upper middle income", 0.128285065293312, 140.14974456340894, "Developing", "ASEAN");</t>
         </is>
       </c>
     </row>
@@ -2364,7 +2364,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("TJK", "Tajikistan", "Europe &amp; Central Asia", "Dushanbe", "Low income", -0.756126046180725, 70.2504791411485, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("TJK", "Tajikistan", "Europe &amp; Central Asia", "Dushanbe", "Low income", -0.756126046180725, 70.2504791411485, "Developing", NULL);</t>
         </is>
       </c>
     </row>
@@ -2374,7 +2374,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("TKM", "Turkmenistan", "Europe &amp; Central Asia", "Ashgabat", "Lower middle income", -1.1583536863327, 13.495318451684293, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("TKM", "Turkmenistan", "Europe &amp; Central Asia", "Ashgabat", "Lower middle income", -1.1583536863327, 13.495318451684293, "Developing", NULL);</t>
         </is>
       </c>
     </row>
@@ -2384,7 +2384,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("TMP", "Timor-Leste", "East Asia &amp; Pacific", "Dili", "Lower middle income", NULL, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("TMP", "Timor-Leste", "East Asia &amp; Pacific", "Dili", "Lower middle income", NULL, NULL, "Developing", NULL);</t>
         </is>
       </c>
     </row>
@@ -2394,7 +2394,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("TON", "Tonga", "East Asia &amp; Pacific", "Nuku'alofa", "Lower middle income", -0.16647757589817, 147.24583333333334, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("TON", "Tonga", "East Asia &amp; Pacific", "Nuku'alofa", "Lower middle income", -0.16647757589817, 147.24583333333334, "Developing", NULL);</t>
         </is>
       </c>
     </row>
@@ -2404,7 +2404,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("TTO", "Trinidad and Tobago", "Latin America &amp; Caribbean", "Port-of-Spain", "High income: nonOECD", -0.0251202769577503, 297.40019493177385, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("TTO", "Trinidad and Tobago", "Latin America &amp; Caribbean", "Port-of-Spain", "High income: nonOECD", -0.0251202769577503, 297.40019493177385, "Developing", "CARICOM");</t>
         </is>
       </c>
     </row>
@@ -2414,7 +2414,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("TUN", "Tunisia", "Middle East &amp; North Africa", "Tunis", "Upper middle income", -0.299408107995987, 78.93245365602472, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("TUN", "Tunisia", "Middle East &amp; North Africa", "Tunis", "Upper middle income", -0.299408107995987, 78.93245365602472, "Developing", NULL);</t>
         </is>
       </c>
     </row>
@@ -2424,7 +2424,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("TUR", "Turkey", "Europe &amp; Central Asia", "Ankara", "Upper middle income", -0.19902965426445, 109.33476865506802, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("TUR", "Turkey", "Europe &amp; Central Asia", "Ankara", "Upper middle income", -0.19902965426445, 109.33476865506802, "Developing", NULL);</t>
         </is>
       </c>
     </row>
@@ -2434,7 +2434,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("TUV", "Tuvalu", "East Asia &amp; Pacific", "Funafuti", "Lower middle income", -0.311674624681473, 373.46666666666664, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("TUV", "Tuvalu", "East Asia &amp; Pacific", "Funafuti", "Lower middle income", -0.311674624681473, 373.46666666666664, "Developing", NULL);</t>
         </is>
       </c>
     </row>
@@ -2444,7 +2444,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("TZA", "Tanzania", "Sub-Saharan Africa", "Dodoma", "Low income", -0.42673471570015, 71.7863332580718, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("TZA", "Tanzania", "Sub-Saharan Africa", "Dodoma", "Low income", -0.42673471570015, 71.7863332580718, "Developing", NULL);</t>
         </is>
       </c>
     </row>
@@ -2454,7 +2454,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("UGA", "Uganda", "Sub-Saharan Africa", "Kampala", "Low income", -0.583969175815582, 228.67433672451625, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("UGA", "Uganda", "Sub-Saharan Africa", "Kampala", "Low income", -0.583969175815582, 228.67433672451625, "Developing", NULL);</t>
         </is>
       </c>
     </row>
@@ -2464,7 +2464,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("UKR", "Ukraine", "Europe &amp; Central Asia", "Kiev", "Lower middle income", -0.496294170618057, 75.63496893337935, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("UKR", "Ukraine", "Europe &amp; Central Asia", "Kiev", "Lower middle income", -0.496294170618057, 75.63496893337935, "Developing", NULL);</t>
         </is>
       </c>
     </row>
@@ -2474,7 +2474,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("URY", "Uruguay", "Latin America &amp; Caribbean", "Montevideo", "Upper middle income", 0.849962711334229, 19.576391269569193, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("URY", "Uruguay", "Latin America &amp; Caribbean", "Montevideo", "Upper middle income", 0.849962711334229, 19.576391269569193, "Developing", "USAN");</t>
         </is>
       </c>
     </row>
@@ -2484,7 +2484,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("USA", "United States", "North America", "Washington D.C.", "High income: OECD", 1.25599312782288, 36.29783632980666, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("USA", "United States", "North America", "Washington D.C.", "High income: OECD", 1.25599312782288, 36.29783632980666, "Developing", "USMCA");</t>
         </is>
       </c>
     </row>
@@ -2494,7 +2494,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("UZB", "Uzbekistan", "Europe &amp; Central Asia", "Tashkent", "Lower middle income", -0.329515904188156, 79.23490819306801, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("UZB", "Uzbekistan", "Europe &amp; Central Asia", "Tashkent", "Lower middle income", -0.329515904188156, 79.23490819306801, "Developing", NULL);</t>
         </is>
       </c>
     </row>
@@ -2504,7 +2504,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("VCT", "St. Vincent and the Grenadines", "Latin America &amp; Caribbean", "Kingstown", "Upper middle income", 0.317980945110321, 267.51794871794874, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("VCT", "St. Vincent and the Grenadines", "Latin America &amp; Caribbean", "Kingstown", "Upper middle income", 0.317980945110321, 267.51794871794874, "Developing", NULL);</t>
         </is>
       </c>
     </row>
@@ -2514,7 +2514,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("VEN", "Venezuela, RB", "Latin America &amp; Caribbean", "Caracas", "Upper middle income", -1.68818092346191, 31.970825916898136, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("VEN", "Venezuela, RB", "Latin America &amp; Caribbean", "Caracas", "Upper middle income", -1.68818092346191, 31.970825916898136, "Developing", NULL);</t>
         </is>
       </c>
     </row>
@@ -2524,7 +2524,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("VIR", "Virgin Islands (U.S.)", "Latin America &amp; Caribbean", "Charlotte Amalie", "High income: nonOECD", NULL, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("VIR", "Virgin Islands (U.S.)", "Latin America &amp; Caribbean", "Charlotte Amalie", "High income: nonOECD", NULL, NULL, "Developing", NULL);</t>
         </is>
       </c>
     </row>
@@ -2534,7 +2534,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("VNM", "Vietnam", "East Asia &amp; Pacific", "Hanoi", "Lower middle income", 0.17549079656601, 310.9732315771674, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("VNM", "Vietnam", "East Asia &amp; Pacific", "Hanoi", "Lower middle income", 0.17549079656601, 310.9732315771674, "Developing", "ASEAN");</t>
         </is>
       </c>
     </row>
@@ -2544,7 +2544,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("VUT", "Vanuatu", "East Asia &amp; Pacific", "Port-Vila", "Lower middle income", -0.536280393600464, 26.18022969647252, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("VUT", "Vanuatu", "East Asia &amp; Pacific", "Port-Vila", "Lower middle income", -0.536280393600464, 26.18022969647252, "Developing", NULL);</t>
         </is>
       </c>
     </row>
@@ -2554,7 +2554,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("WBG", "West Bank and Gaza", "Middle East &amp; North Africa", "NULL", "Lower middle income", NULL, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("WBG", "West Bank and Gaza", "Middle East &amp; North Africa", NULL, "Lower middle income", NULL, NULL, "Developing", NULL);</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2564,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("WSM", "Samoa", "East Asia &amp; Pacific", "Apia", "Lower middle income", 0.304703801870346, 78.69208633093525, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("WSM", "Samoa", "East Asia &amp; Pacific", "Apia", "Lower middle income", 0.304703801870346, 78.69208633093525, "Developing", NULL);</t>
         </is>
       </c>
     </row>
@@ -2574,7 +2574,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("YEM", "Yemen, Rep.", "Middle East &amp; North Africa", "Sana'a", "Lower middle income", -2.23254156112671, 62.46877852908309, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("YEM", "Yemen, Rep.", "Middle East &amp; North Africa", "Sana'a", "Lower middle income", -2.23254156112671, 62.46877852908309, "Developing", NULL);</t>
         </is>
       </c>
     </row>
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("ZAF", "South Africa", "Sub-Saharan Africa", "Pretoria", "Upper middle income", -0.125317960977554, 48.95947951100083, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("ZAF", "South Africa", "Sub-Saharan Africa", "Pretoria", "Upper middle income", -0.125317960977554, 48.95947951100083, "Developing", NULL);</t>
         </is>
       </c>
     </row>
@@ -2594,7 +2594,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("ZAR", "Congo, Dem. Rep.", "Sub-Saharan Africa", "Kinshasa", "Low income", NULL, NULL, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("ZAR", "Congo, Dem. Rep.", "Sub-Saharan Africa", "Kinshasa", "Low income", NULL, NULL, "Developing", NULL);</t>
         </is>
       </c>
     </row>
@@ -2604,7 +2604,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("ZMB", "Zambia", "Sub-Saharan Africa", "Lusaka", "Lower middle income", -0.658232748508453, 26.195032217274917, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("ZMB", "Zambia", "Sub-Saharan Africa", "Lusaka", "Lower middle income", -0.658232748508453, 26.195032217274917, "Developing", NULL);</t>
         </is>
       </c>
     </row>
@@ -2614,7 +2614,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>INSERT INTO country (Country code, Country name, Region, Capital city, Income group, Govt. Effectiveness, Population density, Economic status, [...] Group) VALUES ("ZWE", "Zimbabwe", "Sub-Saharan Africa", "Harare", "Low income", -1.25461292266846, 41.342959803541426, "Developing", "NULL");</t>
+          <t>INSERT INTO country (CountryCode, CountryName, Region, CapitalCity, IncomeGroup, GovernmentEffectiveness, PopulationDensity, DevelopedOrDeveloping, TradeBloc) VALUES ("ZWE", "Zimbabwe", "Sub-Saharan Africa", "Harare", "Low income", -1.25461292266846, 41.342959803541426, "Developing", NULL);</t>
         </is>
       </c>
     </row>
